--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1009146.235496062</v>
+        <v>-1011006.243424265</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5362323.598410272</v>
+        <v>5362323.598410268</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>287.8493297879133</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2594796375887</v>
+        <v>277.2594796375886</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5068080891675</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>122.9402492793432</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>233.8441915268611</v>
+        <v>233.844191526861</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68.83384483201111</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>126.8227539104386</v>
+        <v>173.7017502545637</v>
       </c>
       <c r="V11" t="n">
         <v>250.3286964870406</v>
       </c>
       <c r="W11" t="n">
-        <v>271.8174067343188</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>292.3075386953748</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>308.8143766729593</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.10962166677308</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>70.02150358154442</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>80.22151847230661</v>
       </c>
       <c r="F12" t="n">
-        <v>67.64565041028962</v>
+        <v>89.84384569337661</v>
       </c>
       <c r="G12" t="n">
-        <v>58.44629703045008</v>
+        <v>58.44629703045</v>
       </c>
       <c r="H12" t="n">
-        <v>20.57944696583559</v>
+        <v>20.57944696583553</v>
       </c>
       <c r="I12" t="n">
-        <v>22.19819528308637</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S12" t="n">
-        <v>66.88705533198582</v>
+        <v>66.88705533198576</v>
       </c>
       <c r="T12" t="n">
         <v>116.8012902225022</v>
       </c>
       <c r="U12" t="n">
-        <v>148.4208689038236</v>
+        <v>225.8444308869178</v>
       </c>
       <c r="V12" t="n">
-        <v>155.377025166331</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>174.2714211778253</v>
       </c>
       <c r="X12" t="n">
-        <v>128.3494232203832</v>
+        <v>128.3494232203831</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>128.25913379421</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>102.408418198843</v>
       </c>
       <c r="C13" t="n">
-        <v>89.82325911553357</v>
+        <v>28.883881961515</v>
       </c>
       <c r="D13" t="n">
-        <v>71.1919110351181</v>
+        <v>71.19191103511803</v>
       </c>
       <c r="E13" t="n">
-        <v>52.38983190306926</v>
+        <v>69.01040066347484</v>
       </c>
       <c r="F13" t="n">
-        <v>67.99748603983699</v>
+        <v>67.99748603983691</v>
       </c>
       <c r="G13" t="n">
-        <v>89.33195188606993</v>
+        <v>89.33195188606986</v>
       </c>
       <c r="H13" t="n">
-        <v>73.81919917407168</v>
+        <v>73.81919917407161</v>
       </c>
       <c r="I13" t="n">
-        <v>40.87309622974155</v>
+        <v>40.87309622974148</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.3188083936116</v>
       </c>
       <c r="S13" t="n">
         <v>125.0622420268079</v>
@@ -1582,7 +1582,7 @@
         <v>145.2432203545649</v>
       </c>
       <c r="U13" t="n">
-        <v>208.8280783467079</v>
+        <v>208.8280783467078</v>
       </c>
       <c r="V13" t="n">
         <v>174.7140813407337</v>
@@ -1591,7 +1591,7 @@
         <v>209.0994363534967</v>
       </c>
       <c r="X13" t="n">
-        <v>148.2860934059429</v>
+        <v>148.2860934059428</v>
       </c>
       <c r="Y13" t="n">
         <v>141.1610913690005</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>305.3102796803863</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>287.8493297879133</v>
+        <v>287.8493297879132</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2594796375886</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5068080891675</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>329.4524837586171</v>
       </c>
       <c r="G14" t="n">
-        <v>335.1249171548103</v>
+        <v>335.1249171548102</v>
       </c>
       <c r="H14" t="n">
-        <v>233.8441915268611</v>
+        <v>233.844191526861</v>
       </c>
       <c r="I14" t="n">
-        <v>26.86878149913298</v>
+        <v>26.86878149913295</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.83384483201117</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>133.6155215347106</v>
       </c>
       <c r="U14" t="n">
-        <v>20.51834660058643</v>
+        <v>173.7017502545637</v>
       </c>
       <c r="V14" t="n">
-        <v>250.3286964870406</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>271.8174067343188</v>
+        <v>271.8174067343187</v>
       </c>
       <c r="X14" t="n">
-        <v>292.3075386953748</v>
+        <v>292.3075386953747</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>169.0842620384226</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H15" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I15" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S15" t="n">
         <v>144.3106173150801</v>
@@ -1765,25 +1765,25 @@
         <v>102.408418198843</v>
       </c>
       <c r="C16" t="n">
-        <v>89.82325911553357</v>
+        <v>89.8232591155335</v>
       </c>
       <c r="D16" t="n">
-        <v>71.1919110351181</v>
+        <v>71.19191103511803</v>
       </c>
       <c r="E16" t="n">
-        <v>69.01040066347491</v>
+        <v>69.01040066347484</v>
       </c>
       <c r="F16" t="n">
-        <v>67.99748603983699</v>
+        <v>67.99748603983691</v>
       </c>
       <c r="G16" t="n">
-        <v>89.33195188606992</v>
+        <v>89.33195188606985</v>
       </c>
       <c r="H16" t="n">
-        <v>73.81919917407167</v>
+        <v>53.75291824979398</v>
       </c>
       <c r="I16" t="n">
-        <v>40.87309622974154</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.31880839361165</v>
+        <v>44.31880839361159</v>
       </c>
       <c r="S16" t="n">
         <v>125.0622420268079</v>
@@ -1819,7 +1819,7 @@
         <v>145.2432203545649</v>
       </c>
       <c r="U16" t="n">
-        <v>208.8280783467079</v>
+        <v>208.8280783467078</v>
       </c>
       <c r="V16" t="n">
         <v>174.7140813407337</v>
@@ -1828,10 +1828,10 @@
         <v>209.0994363534967</v>
       </c>
       <c r="X16" t="n">
-        <v>148.2860934059429</v>
+        <v>148.2860934059428</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.22171421498027</v>
+        <v>141.1610913690005</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>217.4608373575288</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.9676753351135</v>
+        <v>233.9676753351133</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H18" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I18" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S18" t="n">
-        <v>144.3106173150807</v>
+        <v>144.3106173150801</v>
       </c>
       <c r="T18" t="n">
-        <v>194.2248522055965</v>
+        <v>194.2248522055958</v>
       </c>
       <c r="U18" t="n">
         <v>225.8444308869178</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.011770023545964</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>50.21554068896189</v>
       </c>
       <c r="T19" t="n">
-        <v>70.39651901671893</v>
+        <v>213.4122311146186</v>
       </c>
       <c r="U19" t="n">
         <v>133.9813770088618</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>222.4668741895429</v>
+        <v>73.43939206809688</v>
       </c>
       <c r="Y19" t="n">
         <v>66.31439003115452</v>
@@ -2144,7 +2144,7 @@
         <v>196.9707053964727</v>
       </c>
       <c r="X20" t="n">
-        <v>217.4608373575288</v>
+        <v>217.4608373575279</v>
       </c>
       <c r="Y20" t="n">
         <v>233.9676753351133</v>
@@ -2175,10 +2175,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H21" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892909</v>
       </c>
       <c r="I21" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S21" t="n">
         <v>144.3106173150801</v>
@@ -2217,7 +2217,7 @@
         <v>225.8444308869178</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>42.60780756742705</v>
+        <v>14.48525054822391</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>21.27334172119378</v>
       </c>
       <c r="J22" t="n">
-        <v>6.011770023545949</v>
+        <v>6.011770023545964</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>70.39651901671893</v>
       </c>
       <c r="U22" t="n">
-        <v>133.9813770088618</v>
+        <v>286.2516403298021</v>
       </c>
       <c r="V22" t="n">
         <v>99.86738000288773</v>
@@ -2412,10 +2412,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H24" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I24" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S24" t="n">
-        <v>144.3106173150807</v>
+        <v>144.3106173150802</v>
       </c>
       <c r="T24" t="n">
         <v>194.2248522055965</v>
@@ -2482,22 +2482,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>25.74655604883853</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7555138691642</v>
+        <v>14.48525054822391</v>
       </c>
       <c r="H25" t="n">
-        <v>151.2427611571659</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>118.2966582128358</v>
       </c>
       <c r="J25" t="n">
-        <v>6.011770023545949</v>
+        <v>6.011770023545964</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.21554068896189</v>
+        <v>81.78380987203465</v>
       </c>
       <c r="T25" t="n">
         <v>70.39651901671893</v>
@@ -2533,7 +2533,7 @@
         <v>133.9813770088618</v>
       </c>
       <c r="V25" t="n">
-        <v>99.86738000288773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>134.2527350156507</v>
@@ -2573,7 +2573,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I26" t="n">
-        <v>24.31268534657009</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.27774867944827</v>
+        <v>66.27774867944832</v>
       </c>
       <c r="T26" t="n">
-        <v>131.0594253821477</v>
+        <v>131.0594253821478</v>
       </c>
       <c r="U26" t="n">
         <v>171.1456541020009</v>
@@ -2649,10 +2649,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H27" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I27" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S27" t="n">
         <v>144.3106173150801</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.85232204628015</v>
+        <v>99.85232204628018</v>
       </c>
       <c r="C28" t="n">
-        <v>87.26716296297069</v>
+        <v>87.26716296297072</v>
       </c>
       <c r="D28" t="n">
-        <v>68.63581488255521</v>
+        <v>68.63581488255524</v>
       </c>
       <c r="E28" t="n">
-        <v>66.45430451091202</v>
+        <v>66.45430451091205</v>
       </c>
       <c r="F28" t="n">
-        <v>65.4413898872741</v>
+        <v>65.44138988727413</v>
       </c>
       <c r="G28" t="n">
-        <v>86.77585573350704</v>
+        <v>86.77585573350707</v>
       </c>
       <c r="H28" t="n">
-        <v>71.26310302150878</v>
+        <v>71.26310302150883</v>
       </c>
       <c r="I28" t="n">
-        <v>38.31700007717865</v>
+        <v>38.31700007717869</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76271224104877</v>
+        <v>41.7627122410488</v>
       </c>
       <c r="S28" t="n">
-        <v>122.506145874245</v>
+        <v>122.5061458742451</v>
       </c>
       <c r="T28" t="n">
         <v>142.6871242020021</v>
@@ -2810,7 +2810,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I29" t="n">
-        <v>24.31268534657008</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.27774867944827</v>
+        <v>66.27774867944834</v>
       </c>
       <c r="T29" t="n">
         <v>131.0594253821477</v>
@@ -2849,7 +2849,7 @@
         <v>171.1456541020009</v>
       </c>
       <c r="V29" t="n">
-        <v>247.7726003344777</v>
+        <v>247.7726003344778</v>
       </c>
       <c r="W29" t="n">
         <v>269.2613105817559</v>
@@ -2858,7 +2858,7 @@
         <v>289.7514425428119</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.2582805203964</v>
+        <v>306.2582805203965</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H30" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I30" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S30" t="n">
         <v>144.3106173150801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.85232204628014</v>
+        <v>99.85232204628018</v>
       </c>
       <c r="C31" t="n">
-        <v>87.26716296297067</v>
+        <v>87.26716296297083</v>
       </c>
       <c r="D31" t="n">
-        <v>68.6358148825552</v>
+        <v>68.63581488255524</v>
       </c>
       <c r="E31" t="n">
-        <v>66.45430451091201</v>
+        <v>66.45430451091205</v>
       </c>
       <c r="F31" t="n">
-        <v>65.44138988727408</v>
+        <v>65.44138988727413</v>
       </c>
       <c r="G31" t="n">
-        <v>86.77585573350703</v>
+        <v>86.77585573350707</v>
       </c>
       <c r="H31" t="n">
-        <v>71.26310302150877</v>
+        <v>71.26310302150881</v>
       </c>
       <c r="I31" t="n">
-        <v>38.31700007717864</v>
+        <v>38.31700007717869</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76271224104875</v>
+        <v>41.7627122410488</v>
       </c>
       <c r="S31" t="n">
         <v>122.506145874245</v>
       </c>
       <c r="T31" t="n">
-        <v>142.687124202002</v>
+        <v>142.6871242020021</v>
       </c>
       <c r="U31" t="n">
         <v>206.271982194145</v>
       </c>
       <c r="V31" t="n">
-        <v>172.1579851881708</v>
+        <v>172.1579851881709</v>
       </c>
       <c r="W31" t="n">
-        <v>206.5433402009338</v>
+        <v>206.5433402009339</v>
       </c>
       <c r="X31" t="n">
         <v>145.72999725338</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.6049952164376</v>
+        <v>138.6049952164377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I32" t="n">
-        <v>24.31268534657009</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.27774867944827</v>
+        <v>66.27774867944832</v>
       </c>
       <c r="T32" t="n">
-        <v>131.0594253821477</v>
+        <v>131.0594253821478</v>
       </c>
       <c r="U32" t="n">
         <v>171.1456541020009</v>
@@ -3123,10 +3123,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H33" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I33" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S33" t="n">
         <v>144.3106173150801</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.85232204628015</v>
+        <v>99.85232204628018</v>
       </c>
       <c r="C34" t="n">
-        <v>87.26716296297069</v>
+        <v>87.26716296297072</v>
       </c>
       <c r="D34" t="n">
-        <v>68.63581488255521</v>
+        <v>68.63581488255524</v>
       </c>
       <c r="E34" t="n">
-        <v>66.45430451091202</v>
+        <v>66.45430451091205</v>
       </c>
       <c r="F34" t="n">
-        <v>65.4413898872741</v>
+        <v>65.44138988727413</v>
       </c>
       <c r="G34" t="n">
-        <v>86.77585573350704</v>
+        <v>86.77585573350707</v>
       </c>
       <c r="H34" t="n">
-        <v>71.2631030215088</v>
+        <v>71.26310302150883</v>
       </c>
       <c r="I34" t="n">
-        <v>38.31700007717866</v>
+        <v>38.31700007717869</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76271224104876</v>
+        <v>41.7627122410488</v>
       </c>
       <c r="S34" t="n">
-        <v>122.506145874245</v>
+        <v>122.5061458742451</v>
       </c>
       <c r="T34" t="n">
         <v>142.6871242020021</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.96506333287815</v>
+        <v>41.96506333287817</v>
       </c>
       <c r="T35" t="n">
         <v>106.7467400355776</v>
@@ -3360,10 +3360,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H36" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I36" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S36" t="n">
         <v>144.3106173150801</v>
@@ -3442,7 +3442,7 @@
         <v>46.95041767493867</v>
       </c>
       <c r="I37" t="n">
-        <v>14.00431473060853</v>
+        <v>14.00431473060854</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.96506333287815</v>
+        <v>41.96506333287817</v>
       </c>
       <c r="T38" t="n">
         <v>106.7467400355776</v>
@@ -3597,10 +3597,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H39" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I39" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S39" t="n">
         <v>144.3106173150801</v>
@@ -3679,7 +3679,7 @@
         <v>46.95041767493867</v>
       </c>
       <c r="I40" t="n">
-        <v>14.00431473060853</v>
+        <v>14.00431473060854</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>277.6380265900345</v>
       </c>
       <c r="F41" t="n">
-        <v>302.5837022594842</v>
+        <v>302.5837022594841</v>
       </c>
       <c r="G41" t="n">
         <v>308.2561356556773</v>
@@ -3797,13 +3797,13 @@
         <v>146.8329687554308</v>
       </c>
       <c r="V41" t="n">
-        <v>223.4599149879077</v>
+        <v>223.4599149879076</v>
       </c>
       <c r="W41" t="n">
-        <v>244.9486252351858</v>
+        <v>244.9486252351857</v>
       </c>
       <c r="X41" t="n">
-        <v>265.4387571962418</v>
+        <v>265.4387571962417</v>
       </c>
       <c r="Y41" t="n">
         <v>281.9455951738263</v>
@@ -3834,10 +3834,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H42" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I42" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S42" t="n">
         <v>144.3106173150801</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.53963669971004</v>
+        <v>75.53963669971002</v>
       </c>
       <c r="C43" t="n">
-        <v>62.95447761640058</v>
+        <v>62.95447761640055</v>
       </c>
       <c r="D43" t="n">
-        <v>44.3231295359851</v>
+        <v>44.32312953598507</v>
       </c>
       <c r="E43" t="n">
-        <v>42.14161916434192</v>
+        <v>42.14161916434189</v>
       </c>
       <c r="F43" t="n">
-        <v>41.12870454070399</v>
+        <v>41.12870454070396</v>
       </c>
       <c r="G43" t="n">
-        <v>62.46317038693692</v>
+        <v>62.46317038693689</v>
       </c>
       <c r="H43" t="n">
-        <v>46.95041767493868</v>
+        <v>46.95041767493866</v>
       </c>
       <c r="I43" t="n">
-        <v>14.00431473060855</v>
+        <v>14.00431473060853</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.45002689447866</v>
+        <v>17.45002689447864</v>
       </c>
       <c r="S43" t="n">
-        <v>98.19346052767492</v>
+        <v>98.19346052767489</v>
       </c>
       <c r="T43" t="n">
         <v>118.3744388554319</v>
@@ -3955,10 +3955,10 @@
         <v>181.9592968475748</v>
       </c>
       <c r="V43" t="n">
-        <v>147.8452998416008</v>
+        <v>147.8452998416007</v>
       </c>
       <c r="W43" t="n">
-        <v>182.2306548543638</v>
+        <v>182.2306548543637</v>
       </c>
       <c r="X43" t="n">
         <v>121.4173119068099</v>
@@ -3986,7 +3986,7 @@
         <v>277.6380265900345</v>
       </c>
       <c r="F44" t="n">
-        <v>302.5837022594842</v>
+        <v>302.5837022594841</v>
       </c>
       <c r="G44" t="n">
         <v>308.2561356556773</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.96506333287815</v>
+        <v>41.96506333287816</v>
       </c>
       <c r="T44" t="n">
         <v>106.7467400355776</v>
@@ -4040,7 +4040,7 @@
         <v>244.9486252351857</v>
       </c>
       <c r="X44" t="n">
-        <v>265.4387571962418</v>
+        <v>265.4387571962417</v>
       </c>
       <c r="Y44" t="n">
         <v>281.9455951738263</v>
@@ -4071,10 +4071,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H45" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I45" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S45" t="n">
         <v>144.3106173150801</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.53963669971003</v>
+        <v>75.53963669971002</v>
       </c>
       <c r="C46" t="n">
-        <v>62.95447761640057</v>
+        <v>62.95447761640055</v>
       </c>
       <c r="D46" t="n">
-        <v>44.32312953598509</v>
+        <v>44.32312953598507</v>
       </c>
       <c r="E46" t="n">
-        <v>42.1416191643419</v>
+        <v>42.14161916434189</v>
       </c>
       <c r="F46" t="n">
-        <v>41.12870454070398</v>
+        <v>41.12870454070396</v>
       </c>
       <c r="G46" t="n">
-        <v>62.46317038693691</v>
+        <v>62.46317038693689</v>
       </c>
       <c r="H46" t="n">
-        <v>46.95041767493867</v>
+        <v>46.95041767493866</v>
       </c>
       <c r="I46" t="n">
         <v>14.00431473060853</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.45002689447865</v>
+        <v>17.45002689447864</v>
       </c>
       <c r="S46" t="n">
-        <v>98.1934605276749</v>
+        <v>98.19346052767489</v>
       </c>
       <c r="T46" t="n">
         <v>118.3744388554319</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>842.8968551524492</v>
+        <v>983.9046607894172</v>
       </c>
       <c r="C11" t="n">
-        <v>552.1399563767792</v>
+        <v>983.9046607894172</v>
       </c>
       <c r="D11" t="n">
-        <v>272.0798759347704</v>
+        <v>703.8445803474085</v>
       </c>
       <c r="E11" t="n">
-        <v>272.0798759347704</v>
+        <v>396.2619459139059</v>
       </c>
       <c r="F11" t="n">
-        <v>272.0798759347704</v>
+        <v>272.0798759347714</v>
       </c>
       <c r="G11" t="n">
-        <v>272.0798759347704</v>
+        <v>272.0798759347714</v>
       </c>
       <c r="H11" t="n">
         <v>35.8736218672343</v>
@@ -5039,52 +5039,52 @@
         <v>35.8736218672343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3900213482435</v>
+        <v>255.4704199811899</v>
       </c>
       <c r="K11" t="n">
-        <v>384.3495429258199</v>
+        <v>384.4299415587662</v>
       </c>
       <c r="L11" t="n">
-        <v>581.2369946816859</v>
+        <v>581.317393314632</v>
       </c>
       <c r="M11" t="n">
-        <v>831.9816583547513</v>
+        <v>832.0620569876971</v>
       </c>
       <c r="N11" t="n">
-        <v>1091.397441210355</v>
+        <v>1091.4778398433</v>
       </c>
       <c r="O11" t="n">
-        <v>1323.021147547914</v>
+        <v>1323.101546180859</v>
       </c>
       <c r="P11" t="n">
-        <v>1486.205621244226</v>
+        <v>1509.117255443306</v>
       </c>
       <c r="Q11" t="n">
-        <v>1770.769459162635</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="R11" t="n">
         <v>1793.681093361715</v>
       </c>
       <c r="S11" t="n">
-        <v>1793.681093361715</v>
+        <v>1724.151957167764</v>
       </c>
       <c r="T11" t="n">
-        <v>1793.681093361715</v>
+        <v>1724.151957167764</v>
       </c>
       <c r="U11" t="n">
-        <v>1665.577301532989</v>
+        <v>1548.695643779316</v>
       </c>
       <c r="V11" t="n">
-        <v>1412.72003235416</v>
+        <v>1295.838374600487</v>
       </c>
       <c r="W11" t="n">
-        <v>1138.156995248788</v>
+        <v>1295.838374600487</v>
       </c>
       <c r="X11" t="n">
-        <v>842.8968551524492</v>
+        <v>1295.838374600487</v>
       </c>
       <c r="Y11" t="n">
-        <v>842.8968551524492</v>
+        <v>983.9046607894172</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>689.0738589359385</v>
+        <v>532.6626226064554</v>
       </c>
       <c r="C12" t="n">
-        <v>514.6208296548115</v>
+        <v>358.2095933253285</v>
       </c>
       <c r="D12" t="n">
-        <v>365.6864199935602</v>
+        <v>287.4808018288189</v>
       </c>
       <c r="E12" t="n">
-        <v>206.4489649881047</v>
+        <v>206.4489649881052</v>
       </c>
       <c r="F12" t="n">
-        <v>138.1200251797313</v>
+        <v>115.6976057018662</v>
       </c>
       <c r="G12" t="n">
-        <v>79.08336151261003</v>
+        <v>56.66094203474493</v>
       </c>
       <c r="H12" t="n">
-        <v>58.29604134509933</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="I12" t="n">
         <v>35.8736218672343</v>
       </c>
       <c r="J12" t="n">
-        <v>48.14046576522593</v>
+        <v>172.9705907522306</v>
       </c>
       <c r="K12" t="n">
-        <v>147.2612805459677</v>
+        <v>533.9119901754251</v>
       </c>
       <c r="L12" t="n">
-        <v>591.197351152992</v>
+        <v>713.5146990715853</v>
       </c>
       <c r="M12" t="n">
-        <v>820.1421092945789</v>
+        <v>942.4594572131718</v>
       </c>
       <c r="N12" t="n">
-        <v>1069.554998853531</v>
+        <v>1191.872346772124</v>
       </c>
       <c r="O12" t="n">
-        <v>1275.499270838172</v>
+        <v>1397.816618756765</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.435341445197</v>
+        <v>1543.771987148901</v>
       </c>
       <c r="Q12" t="n">
         <v>1793.681093361715</v>
@@ -5151,19 +5151,19 @@
         <v>1599.388056827293</v>
       </c>
       <c r="U12" t="n">
-        <v>1449.467987227471</v>
+        <v>1371.262369062729</v>
       </c>
       <c r="V12" t="n">
-        <v>1292.52149716047</v>
+        <v>1136.110260830987</v>
       </c>
       <c r="W12" t="n">
-        <v>1116.48975859701</v>
+        <v>960.0785222675268</v>
       </c>
       <c r="X12" t="n">
-        <v>986.8438765562187</v>
+        <v>830.4326402267357</v>
       </c>
       <c r="Y12" t="n">
-        <v>779.0835777912648</v>
+        <v>700.8779596265235</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>526.2036576080839</v>
+        <v>481.4371844832219</v>
       </c>
       <c r="C13" t="n">
-        <v>435.4730928449186</v>
+        <v>452.2615461382573</v>
       </c>
       <c r="D13" t="n">
-        <v>363.5620715973246</v>
+        <v>380.3505248906633</v>
       </c>
       <c r="E13" t="n">
-        <v>310.6430494730122</v>
+        <v>310.643049473012</v>
       </c>
       <c r="F13" t="n">
-        <v>241.9587201398435</v>
+        <v>241.9587201398434</v>
       </c>
       <c r="G13" t="n">
-        <v>151.7244253054295</v>
+        <v>151.7244253054293</v>
       </c>
       <c r="H13" t="n">
-        <v>77.15957765485203</v>
+        <v>77.15957765485194</v>
       </c>
       <c r="I13" t="n">
         <v>35.8736218672343</v>
       </c>
       <c r="J13" t="n">
-        <v>106.5712959071871</v>
+        <v>106.5712959071872</v>
       </c>
       <c r="K13" t="n">
         <v>303.277065941489</v>
       </c>
       <c r="L13" t="n">
-        <v>589.0837408197776</v>
+        <v>589.0837408197774</v>
       </c>
       <c r="M13" t="n">
-        <v>896.6492882624211</v>
+        <v>896.649288262421</v>
       </c>
       <c r="N13" t="n">
         <v>1204.158780512782</v>
@@ -5221,28 +5221,28 @@
         <v>1793.681093361715</v>
       </c>
       <c r="R13" t="n">
-        <v>1793.681093361715</v>
+        <v>1748.914620236855</v>
       </c>
       <c r="S13" t="n">
-        <v>1667.355596364939</v>
+        <v>1622.589123240079</v>
       </c>
       <c r="T13" t="n">
-        <v>1520.64527277447</v>
+        <v>1475.878799649609</v>
       </c>
       <c r="U13" t="n">
-        <v>1309.70781989901</v>
+        <v>1264.941346774148</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.228949857865</v>
+        <v>1088.462476733003</v>
       </c>
       <c r="W13" t="n">
-        <v>922.0173979856459</v>
+        <v>877.2509248607839</v>
       </c>
       <c r="X13" t="n">
-        <v>772.2334652523703</v>
+        <v>727.4669921275083</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.6465042735819</v>
+        <v>584.8800311487198</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1252.369264841449</v>
+        <v>1557.626997474821</v>
       </c>
       <c r="C14" t="n">
-        <v>961.6123660657793</v>
+        <v>1266.870098699151</v>
       </c>
       <c r="D14" t="n">
-        <v>961.6123660657793</v>
+        <v>986.810018257142</v>
       </c>
       <c r="E14" t="n">
-        <v>654.0297316322767</v>
+        <v>986.810018257142</v>
       </c>
       <c r="F14" t="n">
-        <v>654.0297316322767</v>
+        <v>654.0297316322763</v>
       </c>
       <c r="G14" t="n">
-        <v>315.5197143041854</v>
+        <v>315.5197143041851</v>
       </c>
       <c r="H14" t="n">
-        <v>79.31346023664874</v>
+        <v>79.31346023664871</v>
       </c>
       <c r="I14" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J14" t="n">
-        <v>264.0877549640546</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K14" t="n">
-        <v>713.9512349870841</v>
+        <v>721.6335550411764</v>
       </c>
       <c r="L14" t="n">
-        <v>910.8386867429501</v>
+        <v>918.5210067970422</v>
       </c>
       <c r="M14" t="n">
-        <v>1161.583350416015</v>
+        <v>1169.265670470108</v>
       </c>
       <c r="N14" t="n">
-        <v>1420.999133271619</v>
+        <v>1428.681453325711</v>
       </c>
       <c r="O14" t="n">
-        <v>2029.615019059296</v>
+        <v>1819.423178305989</v>
       </c>
       <c r="P14" t="n">
-        <v>2511.380213845376</v>
+        <v>2301.18837309207</v>
       </c>
       <c r="Q14" t="n">
         <v>2585.752211010479</v>
@@ -5303,25 +5303,25 @@
         <v>2608.663845209559</v>
       </c>
       <c r="S14" t="n">
-        <v>2539.134709015608</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="T14" t="n">
-        <v>2404.169535748224</v>
+        <v>2473.698671942174</v>
       </c>
       <c r="U14" t="n">
-        <v>2383.443933121369</v>
+        <v>2298.242358553726</v>
       </c>
       <c r="V14" t="n">
-        <v>2130.58666394254</v>
+        <v>2298.242358553726</v>
       </c>
       <c r="W14" t="n">
-        <v>1856.023626837168</v>
+        <v>2023.679321448354</v>
       </c>
       <c r="X14" t="n">
-        <v>1560.763486740829</v>
+        <v>1728.419181352016</v>
       </c>
       <c r="Y14" t="n">
-        <v>1560.763486740829</v>
+        <v>1557.626997474821</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>956.6172836305905</v>
+        <v>956.6172836305896</v>
       </c>
       <c r="C15" t="n">
-        <v>782.1642543494635</v>
+        <v>782.1642543494626</v>
       </c>
       <c r="D15" t="n">
-        <v>633.2298446882123</v>
+        <v>633.2298446882114</v>
       </c>
       <c r="E15" t="n">
-        <v>473.9923896827568</v>
+        <v>473.9923896827559</v>
       </c>
       <c r="F15" t="n">
-        <v>327.4578317096418</v>
+        <v>327.4578317096409</v>
       </c>
       <c r="G15" t="n">
-        <v>190.2155498777793</v>
+        <v>190.2155498777784</v>
       </c>
       <c r="H15" t="n">
-        <v>91.22261154552649</v>
+        <v>91.22261154552648</v>
       </c>
       <c r="I15" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2702457891876</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K15" t="n">
-        <v>550.2116452123821</v>
+        <v>288.3910605699292</v>
       </c>
       <c r="L15" t="n">
-        <v>1096.946295958967</v>
+        <v>835.1257113165141</v>
       </c>
       <c r="M15" t="n">
-        <v>1325.891054100554</v>
+        <v>1436.44855738587</v>
       </c>
       <c r="N15" t="n">
-        <v>1575.303943659506</v>
+        <v>1685.861446944823</v>
       </c>
       <c r="O15" t="n">
-        <v>1891.805718929464</v>
+        <v>1891.805718929463</v>
       </c>
       <c r="P15" t="n">
         <v>2353.039228275137</v>
@@ -5379,28 +5379,28 @@
         <v>2608.663845209559</v>
       </c>
       <c r="R15" t="n">
-        <v>2599.914592063509</v>
+        <v>2599.914592063508</v>
       </c>
       <c r="S15" t="n">
-        <v>2454.146291745246</v>
+        <v>2454.146291745245</v>
       </c>
       <c r="T15" t="n">
-        <v>2257.959572345653</v>
+        <v>2257.959572345652</v>
       </c>
       <c r="U15" t="n">
-        <v>2029.83388458109</v>
+        <v>2029.833884581089</v>
       </c>
       <c r="V15" t="n">
-        <v>1794.681776349347</v>
+        <v>1794.681776349346</v>
       </c>
       <c r="W15" t="n">
-        <v>1540.444419621145</v>
+        <v>1540.444419621144</v>
       </c>
       <c r="X15" t="n">
         <v>1332.592919415612</v>
       </c>
       <c r="Y15" t="n">
-        <v>1124.832620650659</v>
+        <v>1124.832620650658</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.2917659383799</v>
+        <v>497.7368395201785</v>
       </c>
       <c r="C16" t="n">
-        <v>468.5612011752146</v>
+        <v>407.0062747570134</v>
       </c>
       <c r="D16" t="n">
-        <v>396.6501799276206</v>
+        <v>335.0952535094194</v>
       </c>
       <c r="E16" t="n">
-        <v>326.9427045099691</v>
+        <v>265.387778091768</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2583751768004</v>
+        <v>196.7034487585991</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0240803423863</v>
+        <v>106.4691539241851</v>
       </c>
       <c r="H16" t="n">
-        <v>93.45923269180891</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="I16" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J16" t="n">
         <v>122.870950944144</v>
       </c>
       <c r="K16" t="n">
-        <v>319.5767209784459</v>
+        <v>319.576720978446</v>
       </c>
       <c r="L16" t="n">
-        <v>605.3833958567343</v>
+        <v>605.3833958567344</v>
       </c>
       <c r="M16" t="n">
-        <v>912.9489432993778</v>
+        <v>912.948943299378</v>
       </c>
       <c r="N16" t="n">
         <v>1220.458435549739</v>
@@ -5458,28 +5458,28 @@
         <v>1809.980748398672</v>
       </c>
       <c r="R16" t="n">
-        <v>1765.214275273811</v>
+        <v>1765.214275273812</v>
       </c>
       <c r="S16" t="n">
         <v>1638.888778277036</v>
       </c>
       <c r="T16" t="n">
-        <v>1492.178454686566</v>
+        <v>1492.178454686567</v>
       </c>
       <c r="U16" t="n">
-        <v>1281.241001811104</v>
+        <v>1281.241001811105</v>
       </c>
       <c r="V16" t="n">
-        <v>1104.762131769958</v>
+        <v>1104.762131769959</v>
       </c>
       <c r="W16" t="n">
-        <v>893.5505798977395</v>
+        <v>893.5505798977405</v>
       </c>
       <c r="X16" t="n">
-        <v>743.766647164464</v>
+        <v>743.7666471644649</v>
       </c>
       <c r="Y16" t="n">
-        <v>662.7346126038778</v>
+        <v>601.1796861856765</v>
       </c>
     </row>
     <row r="17">
@@ -5507,43 +5507,43 @@
         <v>212.7768023476408</v>
       </c>
       <c r="H17" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="I17" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="J17" t="n">
-        <v>104.3644259977938</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K17" t="n">
-        <v>233.3239475753703</v>
+        <v>721.6335550411762</v>
       </c>
       <c r="L17" t="n">
-        <v>843.6960017361822</v>
+        <v>918.5210067970421</v>
       </c>
       <c r="M17" t="n">
-        <v>1489.340303425548</v>
+        <v>1169.265670470107</v>
       </c>
       <c r="N17" t="n">
-        <v>2134.984605114914</v>
+        <v>1428.681453325711</v>
       </c>
       <c r="O17" t="n">
-        <v>2366.608311452473</v>
+        <v>1842.334812505069</v>
       </c>
       <c r="P17" t="n">
-        <v>2529.792785148785</v>
+        <v>2324.100007291149</v>
       </c>
       <c r="Q17" t="n">
-        <v>2604.164782313888</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="R17" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="S17" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="T17" t="n">
-        <v>2549.301400566262</v>
+        <v>2549.301400566261</v>
       </c>
       <c r="U17" t="n">
         <v>2449.4478158019</v>
@@ -5586,37 +5586,37 @@
         <v>190.2155498777789</v>
       </c>
       <c r="H18" t="n">
-        <v>91.22261154552649</v>
+        <v>91.22261154552646</v>
       </c>
       <c r="I18" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2702457891876</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K18" t="n">
-        <v>550.2116452123821</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L18" t="n">
         <v>1096.946295958967</v>
       </c>
       <c r="M18" t="n">
-        <v>1325.891054100554</v>
+        <v>1436.44855738587</v>
       </c>
       <c r="N18" t="n">
-        <v>1575.303943659506</v>
+        <v>1685.861446944822</v>
       </c>
       <c r="O18" t="n">
-        <v>1891.805718929464</v>
+        <v>1891.805718929463</v>
       </c>
       <c r="P18" t="n">
-        <v>2353.039228275137</v>
+        <v>2353.039228275136</v>
       </c>
       <c r="Q18" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="R18" t="n">
-        <v>2599.914592063508</v>
+        <v>2599.914592063507</v>
       </c>
       <c r="S18" t="n">
         <v>2454.146291745245</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.9326792535967</v>
+        <v>88.00517422687543</v>
       </c>
       <c r="C19" t="n">
-        <v>66.80484311451836</v>
+        <v>72.87733808779709</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80484311451836</v>
+        <v>72.87733808779709</v>
       </c>
       <c r="E19" t="n">
-        <v>66.80484311451836</v>
+        <v>72.87733808779709</v>
       </c>
       <c r="F19" t="n">
-        <v>66.80484311451836</v>
+        <v>72.87733808779709</v>
       </c>
       <c r="G19" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746991</v>
       </c>
       <c r="H19" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746991</v>
       </c>
       <c r="I19" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746991</v>
       </c>
       <c r="J19" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="K19" t="n">
         <v>172.2297205752297</v>
@@ -5680,10 +5680,10 @@
         <v>381.3870690902548</v>
       </c>
       <c r="M19" t="n">
-        <v>612.303290169635</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N19" t="n">
-        <v>843.1634560567325</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O19" t="n">
         <v>1040.383889539601</v>
@@ -5698,25 +5698,25 @@
         <v>1202.737789815875</v>
       </c>
       <c r="S19" t="n">
-        <v>1152.015021443187</v>
+        <v>1152.015021443186</v>
       </c>
       <c r="T19" t="n">
-        <v>1080.907426476804</v>
+        <v>936.4471112264</v>
       </c>
       <c r="U19" t="n">
-        <v>945.5727022254284</v>
+        <v>801.1123869750244</v>
       </c>
       <c r="V19" t="n">
-        <v>690.8882140195416</v>
+        <v>546.4278987691375</v>
       </c>
       <c r="W19" t="n">
-        <v>401.471043982581</v>
+        <v>257.0107287321769</v>
       </c>
       <c r="X19" t="n">
-        <v>176.7570296497094</v>
+        <v>182.8295246229881</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.7727972950078</v>
+        <v>115.8452922682866</v>
       </c>
     </row>
     <row r="20">
@@ -5732,64 +5732,64 @@
         <v>1169.298906679762</v>
       </c>
       <c r="D20" t="n">
-        <v>964.8415548618397</v>
+        <v>964.8415548618395</v>
       </c>
       <c r="E20" t="n">
-        <v>732.861649052424</v>
+        <v>732.8616490524239</v>
       </c>
       <c r="F20" t="n">
-        <v>475.6840910516451</v>
+        <v>475.684091051645</v>
       </c>
       <c r="G20" t="n">
         <v>212.7768023476408</v>
       </c>
       <c r="H20" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="I20" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="J20" t="n">
-        <v>104.3644259977938</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K20" t="n">
-        <v>233.3239475753703</v>
+        <v>721.6335550411762</v>
       </c>
       <c r="L20" t="n">
-        <v>843.6960017361822</v>
+        <v>1077.639025439762</v>
       </c>
       <c r="M20" t="n">
-        <v>1489.340303425548</v>
+        <v>1328.383689112827</v>
       </c>
       <c r="N20" t="n">
-        <v>2116.572033811505</v>
+        <v>1587.79947196843</v>
       </c>
       <c r="O20" t="n">
-        <v>2348.195740149064</v>
+        <v>1819.423178305989</v>
       </c>
       <c r="P20" t="n">
-        <v>2511.380213845376</v>
+        <v>2301.188373092069</v>
       </c>
       <c r="Q20" t="n">
-        <v>2585.752211010479</v>
+        <v>2585.752211010478</v>
       </c>
       <c r="R20" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="S20" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="T20" t="n">
-        <v>2549.301400566261</v>
+        <v>2549.30140056626</v>
       </c>
       <c r="U20" t="n">
-        <v>2449.4478158019</v>
+        <v>2449.447815801899</v>
       </c>
       <c r="V20" t="n">
-        <v>2272.193275247158</v>
+        <v>2272.193275247157</v>
       </c>
       <c r="W20" t="n">
-        <v>2073.232966765872</v>
+        <v>2073.232966765871</v>
       </c>
       <c r="X20" t="n">
         <v>1853.575555293621</v>
@@ -5805,67 +5805,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>956.6172836305906</v>
+        <v>956.6172836305898</v>
       </c>
       <c r="C21" t="n">
-        <v>782.1642543494636</v>
+        <v>782.1642543494628</v>
       </c>
       <c r="D21" t="n">
-        <v>633.2298446882123</v>
+        <v>633.2298446882115</v>
       </c>
       <c r="E21" t="n">
-        <v>473.9923896827569</v>
+        <v>473.992389682756</v>
       </c>
       <c r="F21" t="n">
-        <v>327.4578317096418</v>
+        <v>327.457831709641</v>
       </c>
       <c r="G21" t="n">
-        <v>190.2155498777789</v>
+        <v>190.2155498777781</v>
       </c>
       <c r="H21" t="n">
-        <v>91.22261154552649</v>
+        <v>91.22261154552646</v>
       </c>
       <c r="I21" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="J21" t="n">
-        <v>117.8805678490323</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K21" t="n">
-        <v>478.8219672722269</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L21" t="n">
-        <v>1025.556618018812</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M21" t="n">
-        <v>1254.501376160399</v>
+        <v>1436.44855738587</v>
       </c>
       <c r="N21" t="n">
-        <v>1503.914265719351</v>
+        <v>1685.861446944822</v>
       </c>
       <c r="O21" t="n">
-        <v>2099.782233787954</v>
+        <v>1891.805718929463</v>
       </c>
       <c r="P21" t="n">
-        <v>2561.015743133628</v>
+        <v>2353.039228275136</v>
       </c>
       <c r="Q21" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="R21" t="n">
-        <v>2599.914592063508</v>
+        <v>2599.914592063507</v>
       </c>
       <c r="S21" t="n">
         <v>2454.146291745245</v>
       </c>
       <c r="T21" t="n">
-        <v>2257.959572345653</v>
+        <v>2257.959572345652</v>
       </c>
       <c r="U21" t="n">
-        <v>2029.83388458109</v>
+        <v>2029.833884581089</v>
       </c>
       <c r="V21" t="n">
-        <v>1794.681776349347</v>
+        <v>1794.681776349346</v>
       </c>
       <c r="W21" t="n">
         <v>1540.444419621145</v>
@@ -5874,7 +5874,7 @@
         <v>1332.592919415612</v>
       </c>
       <c r="Y21" t="n">
-        <v>1124.832620650659</v>
+        <v>1124.832620650658</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.3017449765061</v>
+        <v>109.4933981876772</v>
       </c>
       <c r="C22" t="n">
-        <v>248.1739088374278</v>
+        <v>94.36556204859889</v>
       </c>
       <c r="D22" t="n">
-        <v>248.1739088374278</v>
+        <v>94.36556204859889</v>
       </c>
       <c r="E22" t="n">
-        <v>248.1739088374278</v>
+        <v>94.36556204859889</v>
       </c>
       <c r="F22" t="n">
-        <v>101.2839613395174</v>
+        <v>94.36556204859889</v>
       </c>
       <c r="G22" t="n">
-        <v>58.24577187746992</v>
+        <v>79.73399583827171</v>
       </c>
       <c r="H22" t="n">
-        <v>58.24577187746992</v>
+        <v>79.73399583827171</v>
       </c>
       <c r="I22" t="n">
-        <v>58.24577187746992</v>
+        <v>58.24577187746991</v>
       </c>
       <c r="J22" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="K22" t="n">
         <v>172.2297205752297</v>
@@ -5917,10 +5917,10 @@
         <v>381.3870690902548</v>
       </c>
       <c r="M22" t="n">
-        <v>612.303290169635</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N22" t="n">
-        <v>843.1634560567325</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O22" t="n">
         <v>1040.383889539601</v>
@@ -5932,28 +5932,28 @@
         <v>1202.737789815875</v>
       </c>
       <c r="R22" t="n">
-        <v>1079.765698526274</v>
+        <v>1079.765698526273</v>
       </c>
       <c r="S22" t="n">
-        <v>875.2345833647562</v>
+        <v>875.234583364756</v>
       </c>
       <c r="T22" t="n">
-        <v>804.1269883983734</v>
+        <v>804.1269883983732</v>
       </c>
       <c r="U22" t="n">
-        <v>668.7922641469979</v>
+        <v>514.983917358169</v>
       </c>
       <c r="V22" t="n">
-        <v>567.9161227299396</v>
+        <v>414.1077759411107</v>
       </c>
       <c r="W22" t="n">
-        <v>432.3072994818075</v>
+        <v>278.4989526929787</v>
       </c>
       <c r="X22" t="n">
-        <v>358.1260953726188</v>
+        <v>204.3177485837899</v>
       </c>
       <c r="Y22" t="n">
-        <v>291.1418630179173</v>
+        <v>137.3335162290884</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1384.453076831345</v>
+        <v>1384.453076831344</v>
       </c>
       <c r="C23" t="n">
-        <v>1169.298906679762</v>
+        <v>1169.298906679761</v>
       </c>
       <c r="D23" t="n">
-        <v>964.84155486184</v>
+        <v>964.8415548618395</v>
       </c>
       <c r="E23" t="n">
-        <v>732.8616490524241</v>
+        <v>732.8616490524238</v>
       </c>
       <c r="F23" t="n">
-        <v>475.6840910516451</v>
+        <v>475.6840910516448</v>
       </c>
       <c r="G23" t="n">
         <v>212.7768023476408</v>
       </c>
       <c r="H23" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="I23" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J23" t="n">
-        <v>104.3644259977938</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K23" t="n">
-        <v>233.3239475753703</v>
+        <v>721.6335550411764</v>
       </c>
       <c r="L23" t="n">
-        <v>843.6960017361822</v>
+        <v>918.5210067970422</v>
       </c>
       <c r="M23" t="n">
-        <v>1489.340303425548</v>
+        <v>1169.265670470108</v>
       </c>
       <c r="N23" t="n">
-        <v>1748.756086281152</v>
+        <v>1428.681453325711</v>
       </c>
       <c r="O23" t="n">
-        <v>1980.37979261871</v>
+        <v>1819.423178305989</v>
       </c>
       <c r="P23" t="n">
-        <v>2324.10000729115</v>
+        <v>2301.18837309207</v>
       </c>
       <c r="Q23" t="n">
-        <v>2608.663845209559</v>
+        <v>2585.752211010479</v>
       </c>
       <c r="R23" t="n">
         <v>2608.663845209559</v>
@@ -6017,7 +6017,7 @@
         <v>2608.663845209559</v>
       </c>
       <c r="T23" t="n">
-        <v>2549.301400566262</v>
+        <v>2549.301400566261</v>
       </c>
       <c r="U23" t="n">
         <v>2449.4478158019</v>
@@ -6060,28 +6060,28 @@
         <v>190.2155498777789</v>
       </c>
       <c r="H24" t="n">
-        <v>91.22261154552649</v>
+        <v>91.22261154552648</v>
       </c>
       <c r="I24" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2702457891876</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K24" t="n">
-        <v>550.2116452123821</v>
+        <v>288.3910605699292</v>
       </c>
       <c r="L24" t="n">
-        <v>1096.946295958967</v>
+        <v>467.9937694660895</v>
       </c>
       <c r="M24" t="n">
-        <v>1325.891054100554</v>
+        <v>965.5715901250325</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.861446944823</v>
+        <v>1611.215891814398</v>
       </c>
       <c r="O24" t="n">
-        <v>1891.805718929464</v>
+        <v>2207.083859883001</v>
       </c>
       <c r="P24" t="n">
         <v>2353.039228275137</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>540.0821830549366</v>
+        <v>354.3866956771452</v>
       </c>
       <c r="C25" t="n">
-        <v>524.9543469158583</v>
+        <v>339.2588595380669</v>
       </c>
       <c r="D25" t="n">
-        <v>524.9543469158583</v>
+        <v>339.2588595380669</v>
       </c>
       <c r="E25" t="n">
-        <v>498.9477246443042</v>
+        <v>339.2588595380669</v>
       </c>
       <c r="F25" t="n">
-        <v>498.9477246443042</v>
+        <v>192.3689120401565</v>
       </c>
       <c r="G25" t="n">
-        <v>330.5078116451485</v>
+        <v>177.7373458298293</v>
       </c>
       <c r="H25" t="n">
         <v>177.7373458298293</v>
@@ -6145,7 +6145,7 @@
         <v>58.24577187746992</v>
       </c>
       <c r="J25" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="K25" t="n">
         <v>172.2297205752297</v>
@@ -6154,10 +6154,10 @@
         <v>381.3870690902548</v>
       </c>
       <c r="M25" t="n">
-        <v>612.303290169635</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N25" t="n">
-        <v>843.1634560567325</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O25" t="n">
         <v>1040.383889539601</v>
@@ -6172,25 +6172,25 @@
         <v>1202.737789815875</v>
       </c>
       <c r="S25" t="n">
-        <v>1152.015021443187</v>
+        <v>1120.127880854224</v>
       </c>
       <c r="T25" t="n">
-        <v>1080.907426476804</v>
+        <v>1049.020285887841</v>
       </c>
       <c r="U25" t="n">
-        <v>945.5727022254284</v>
+        <v>913.6855616364656</v>
       </c>
       <c r="V25" t="n">
-        <v>844.6965608083701</v>
+        <v>659.0010734305788</v>
       </c>
       <c r="W25" t="n">
-        <v>709.0877375602381</v>
+        <v>523.3922501824467</v>
       </c>
       <c r="X25" t="n">
-        <v>634.9065334510493</v>
+        <v>449.2110460732579</v>
       </c>
       <c r="Y25" t="n">
-        <v>567.9223010963478</v>
+        <v>382.2268137185563</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6206,43 @@
         <v>1580.201569095985</v>
       </c>
       <c r="D26" t="n">
-        <v>1302.723403959596</v>
+        <v>1302.723403959595</v>
       </c>
       <c r="E26" t="n">
-        <v>997.7226848317124</v>
+        <v>997.7226848317118</v>
       </c>
       <c r="F26" t="n">
-        <v>667.5243135124656</v>
+        <v>667.5243135124651</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5962114899934</v>
+        <v>331.596211489993</v>
       </c>
       <c r="H26" t="n">
-        <v>97.97187272807561</v>
+        <v>97.97187272807568</v>
       </c>
       <c r="I26" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J26" t="n">
         <v>293.0104028151928</v>
       </c>
       <c r="K26" t="n">
-        <v>742.8738828382224</v>
+        <v>421.9699243927691</v>
       </c>
       <c r="L26" t="n">
-        <v>1353.245936999034</v>
+        <v>1032.341978553581</v>
       </c>
       <c r="M26" t="n">
-        <v>2049.008998830004</v>
+        <v>1728.10504038455</v>
       </c>
       <c r="N26" t="n">
-        <v>2308.424781685607</v>
+        <v>2420.494278408018</v>
       </c>
       <c r="O26" t="n">
-        <v>2917.040667473284</v>
+        <v>2904.351202357368</v>
       </c>
       <c r="P26" t="n">
-        <v>3398.805862259364</v>
+        <v>3386.116397143448</v>
       </c>
       <c r="Q26" t="n">
         <v>3670.680235061857</v>
@@ -6251,7 +6251,7 @@
         <v>3670.680235061857</v>
       </c>
       <c r="S26" t="n">
-        <v>3603.733014173525</v>
+        <v>3603.733014173526</v>
       </c>
       <c r="T26" t="n">
         <v>3471.34975621176</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>977.8576114276365</v>
+        <v>977.8576114276367</v>
       </c>
       <c r="C27" t="n">
-        <v>803.4045821465095</v>
+        <v>803.4045821465097</v>
       </c>
       <c r="D27" t="n">
-        <v>654.4701724852582</v>
+        <v>654.4701724852584</v>
       </c>
       <c r="E27" t="n">
-        <v>495.2327174798028</v>
+        <v>495.2327174798029</v>
       </c>
       <c r="F27" t="n">
         <v>348.6981595066878</v>
@@ -6297,10 +6297,10 @@
         <v>211.4558776748248</v>
       </c>
       <c r="H27" t="n">
-        <v>112.4629393425724</v>
+        <v>112.4629393425725</v>
       </c>
       <c r="I27" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J27" t="n">
         <v>210.5105735862335</v>
@@ -6345,10 +6345,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X27" t="n">
-        <v>1353.833247212658</v>
+        <v>1353.833247212659</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.072948447704</v>
+        <v>1146.072948447705</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.4586865960923</v>
+        <v>562.4586865960921</v>
       </c>
       <c r="C28" t="n">
-        <v>474.3100371385462</v>
+        <v>474.3100371385459</v>
       </c>
       <c r="D28" t="n">
-        <v>404.9809311965712</v>
+        <v>404.9809311965709</v>
       </c>
       <c r="E28" t="n">
-        <v>337.8553710845389</v>
+        <v>337.8553710845385</v>
       </c>
       <c r="F28" t="n">
-        <v>271.7529570569893</v>
+        <v>271.7529570569889</v>
       </c>
       <c r="G28" t="n">
-        <v>184.1005775281943</v>
+        <v>184.1005775281938</v>
       </c>
       <c r="H28" t="n">
         <v>112.1176451832358</v>
       </c>
       <c r="I28" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J28" t="n">
-        <v>146.6418139322274</v>
+        <v>146.6418139322271</v>
       </c>
       <c r="K28" t="n">
-        <v>345.8781191575666</v>
+        <v>345.8781191575661</v>
       </c>
       <c r="L28" t="n">
-        <v>634.215329226892</v>
+        <v>634.2153292268918</v>
       </c>
       <c r="M28" t="n">
-        <v>944.3114118605728</v>
+        <v>944.3114118605725</v>
       </c>
       <c r="N28" t="n">
-        <v>1254.351439301971</v>
+        <v>1254.35143930197</v>
       </c>
       <c r="O28" t="n">
         <v>1530.75173433914</v>
       </c>
       <c r="P28" t="n">
-        <v>1755.167065391861</v>
+        <v>1755.16706539186</v>
       </c>
       <c r="Q28" t="n">
         <v>1851.465357724015</v>
@@ -6409,25 +6409,25 @@
         <v>1809.280799904774</v>
       </c>
       <c r="S28" t="n">
-        <v>1685.537218213618</v>
+        <v>1685.537218213617</v>
       </c>
       <c r="T28" t="n">
-        <v>1541.408809928767</v>
+        <v>1541.408809928766</v>
       </c>
       <c r="U28" t="n">
-        <v>1333.053272358924</v>
+        <v>1333.053272358923</v>
       </c>
       <c r="V28" t="n">
         <v>1159.156317623397</v>
       </c>
       <c r="W28" t="n">
-        <v>950.5266810567975</v>
+        <v>950.5266810567971</v>
       </c>
       <c r="X28" t="n">
-        <v>803.3246636291409</v>
+        <v>803.3246636291403</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.3196179559712</v>
+        <v>663.3196179559711</v>
       </c>
     </row>
     <row r="29">
@@ -6443,61 +6443,61 @@
         <v>1580.201569095985</v>
       </c>
       <c r="D29" t="n">
-        <v>1302.723403959596</v>
+        <v>1302.723403959595</v>
       </c>
       <c r="E29" t="n">
-        <v>997.7226848317119</v>
+        <v>997.7226848317117</v>
       </c>
       <c r="F29" t="n">
-        <v>667.5243135124651</v>
+        <v>667.5243135124649</v>
       </c>
       <c r="G29" t="n">
-        <v>331.596211489993</v>
+        <v>331.5962114899927</v>
       </c>
       <c r="H29" t="n">
-        <v>97.9718727280756</v>
+        <v>97.97187272807567</v>
       </c>
       <c r="I29" t="n">
         <v>73.41360470123713</v>
       </c>
       <c r="J29" t="n">
-        <v>293.0104028151928</v>
+        <v>125.6047537948397</v>
       </c>
       <c r="K29" t="n">
-        <v>742.8738828382224</v>
+        <v>575.4682338178692</v>
       </c>
       <c r="L29" t="n">
-        <v>1094.863223269479</v>
+        <v>1185.840287978681</v>
       </c>
       <c r="M29" t="n">
-        <v>1790.626285100449</v>
+        <v>1881.60334980965</v>
       </c>
       <c r="N29" t="n">
-        <v>2483.015523123916</v>
+        <v>2573.992587833118</v>
       </c>
       <c r="O29" t="n">
-        <v>3091.631408911593</v>
+        <v>3114.543043110673</v>
       </c>
       <c r="P29" t="n">
-        <v>3573.396603697674</v>
+        <v>3596.308237896754</v>
       </c>
       <c r="Q29" t="n">
-        <v>3647.768600862777</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="R29" t="n">
-        <v>3670.680235061856</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="S29" t="n">
         <v>3603.733014173525</v>
       </c>
       <c r="T29" t="n">
-        <v>3471.34975621176</v>
+        <v>3471.349756211759</v>
       </c>
       <c r="U29" t="n">
         <v>3298.475358128931</v>
       </c>
       <c r="V29" t="n">
-        <v>3048.200004255721</v>
+        <v>3048.20000425572</v>
       </c>
       <c r="W29" t="n">
         <v>2776.218882455967</v>
@@ -6540,19 +6540,19 @@
         <v>73.41360470123713</v>
       </c>
       <c r="J30" t="n">
-        <v>85.68044859922877</v>
+        <v>210.5105735862335</v>
       </c>
       <c r="K30" t="n">
-        <v>446.6218480224233</v>
+        <v>571.451973009428</v>
       </c>
       <c r="L30" t="n">
-        <v>993.3564987690083</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.301256910595</v>
+        <v>1347.1313818976</v>
       </c>
       <c r="N30" t="n">
-        <v>1471.714146469548</v>
+        <v>1596.544271456552</v>
       </c>
       <c r="O30" t="n">
         <v>1913.04604672651</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.4586865960923</v>
+        <v>562.4586865960925</v>
       </c>
       <c r="C31" t="n">
-        <v>474.3100371385461</v>
+        <v>474.3100371385462</v>
       </c>
       <c r="D31" t="n">
         <v>404.9809311965712</v>
@@ -6607,10 +6607,10 @@
         <v>337.8553710845388</v>
       </c>
       <c r="F31" t="n">
-        <v>271.7529570569893</v>
+        <v>271.7529570569892</v>
       </c>
       <c r="G31" t="n">
-        <v>184.1005775281943</v>
+        <v>184.1005775281942</v>
       </c>
       <c r="H31" t="n">
         <v>112.1176451832358</v>
@@ -6619,37 +6619,37 @@
         <v>73.41360470123713</v>
       </c>
       <c r="J31" t="n">
-        <v>146.6418139322271</v>
+        <v>146.641813932227</v>
       </c>
       <c r="K31" t="n">
-        <v>345.8781191575662</v>
+        <v>345.8781191575661</v>
       </c>
       <c r="L31" t="n">
-        <v>634.2153292268919</v>
+        <v>634.2153292268916</v>
       </c>
       <c r="M31" t="n">
-        <v>944.3114118605725</v>
+        <v>944.3114118605724</v>
       </c>
       <c r="N31" t="n">
         <v>1254.35143930197</v>
       </c>
       <c r="O31" t="n">
-        <v>1530.75173433914</v>
+        <v>1530.751734339139</v>
       </c>
       <c r="P31" t="n">
-        <v>1755.167065391861</v>
+        <v>1755.16706539186</v>
       </c>
       <c r="Q31" t="n">
-        <v>1851.465357724016</v>
+        <v>1851.465357724015</v>
       </c>
       <c r="R31" t="n">
         <v>1809.280799904774</v>
       </c>
       <c r="S31" t="n">
-        <v>1685.537218213618</v>
+        <v>1685.537218213617</v>
       </c>
       <c r="T31" t="n">
-        <v>1541.408809928767</v>
+        <v>1541.408809928766</v>
       </c>
       <c r="U31" t="n">
         <v>1333.053272358923</v>
@@ -6658,13 +6658,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W31" t="n">
-        <v>950.5266810567973</v>
+        <v>950.5266810567971</v>
       </c>
       <c r="X31" t="n">
-        <v>803.3246636291408</v>
+        <v>803.3246636291403</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.3196179559712</v>
+        <v>663.3196179559716</v>
       </c>
     </row>
     <row r="32">
@@ -6677,55 +6677,55 @@
         <v>1868.376552566036</v>
       </c>
       <c r="C32" t="n">
-        <v>1580.201569095986</v>
+        <v>1580.201569095985</v>
       </c>
       <c r="D32" t="n">
-        <v>1302.723403959596</v>
+        <v>1302.723403959595</v>
       </c>
       <c r="E32" t="n">
-        <v>997.7226848317124</v>
+        <v>997.7226848317118</v>
       </c>
       <c r="F32" t="n">
-        <v>667.5243135124656</v>
+        <v>667.5243135124651</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5962114899935</v>
+        <v>331.596211489993</v>
       </c>
       <c r="H32" t="n">
-        <v>97.97187272807561</v>
+        <v>97.97187272807568</v>
       </c>
       <c r="I32" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J32" t="n">
         <v>293.0104028151928</v>
       </c>
       <c r="K32" t="n">
-        <v>742.8738828382224</v>
+        <v>742.8738828382222</v>
       </c>
       <c r="L32" t="n">
-        <v>1353.245936999034</v>
+        <v>1340.556471883119</v>
       </c>
       <c r="M32" t="n">
-        <v>1603.9906006721</v>
+        <v>2036.319533714088</v>
       </c>
       <c r="N32" t="n">
-        <v>2272.823682370611</v>
+        <v>2295.735316569691</v>
       </c>
       <c r="O32" t="n">
-        <v>2881.439568158288</v>
+        <v>2904.351202357368</v>
       </c>
       <c r="P32" t="n">
-        <v>3363.204762944368</v>
+        <v>3386.116397143448</v>
       </c>
       <c r="Q32" t="n">
-        <v>3647.768600862777</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="R32" t="n">
         <v>3670.680235061857</v>
       </c>
       <c r="S32" t="n">
-        <v>3603.733014173525</v>
+        <v>3603.733014173526</v>
       </c>
       <c r="T32" t="n">
         <v>3471.34975621176</v>
@@ -6737,13 +6737,13 @@
         <v>3048.200004255721</v>
       </c>
       <c r="W32" t="n">
-        <v>2776.218882455968</v>
+        <v>2776.218882455967</v>
       </c>
       <c r="X32" t="n">
-        <v>2483.540657665249</v>
+        <v>2483.540657665248</v>
       </c>
       <c r="Y32" t="n">
-        <v>2174.188859159798</v>
+        <v>2174.188859159797</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>977.8576114276365</v>
+        <v>977.8576114276367</v>
       </c>
       <c r="C33" t="n">
-        <v>803.4045821465095</v>
+        <v>803.4045821465097</v>
       </c>
       <c r="D33" t="n">
-        <v>654.4701724852582</v>
+        <v>654.4701724852584</v>
       </c>
       <c r="E33" t="n">
-        <v>495.2327174798028</v>
+        <v>495.2327174798029</v>
       </c>
       <c r="F33" t="n">
         <v>348.6981595066878</v>
@@ -6771,10 +6771,10 @@
         <v>211.4558776748248</v>
       </c>
       <c r="H33" t="n">
-        <v>112.4629393425724</v>
+        <v>112.4629393425725</v>
       </c>
       <c r="I33" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J33" t="n">
         <v>210.5105735862335</v>
@@ -6786,10 +6786,10 @@
         <v>1118.186623756013</v>
       </c>
       <c r="M33" t="n">
-        <v>1347.1313818976</v>
+        <v>1457.688885182916</v>
       </c>
       <c r="N33" t="n">
-        <v>1596.544271456552</v>
+        <v>1707.101774741869</v>
       </c>
       <c r="O33" t="n">
         <v>1913.04604672651</v>
@@ -6819,10 +6819,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X33" t="n">
-        <v>1353.833247212658</v>
+        <v>1353.833247212659</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.072948447704</v>
+        <v>1146.072948447705</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.4586865960922</v>
+        <v>562.4586865960923</v>
       </c>
       <c r="C34" t="n">
         <v>474.3100371385461</v>
@@ -6844,37 +6844,37 @@
         <v>337.8553710845388</v>
       </c>
       <c r="F34" t="n">
-        <v>271.7529570569892</v>
+        <v>271.7529570569891</v>
       </c>
       <c r="G34" t="n">
-        <v>184.1005775281942</v>
+        <v>184.1005775281941</v>
       </c>
       <c r="H34" t="n">
-        <v>112.1176451832358</v>
+        <v>112.1176451832357</v>
       </c>
       <c r="I34" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J34" t="n">
         <v>146.6418139322272</v>
       </c>
       <c r="K34" t="n">
-        <v>345.8781191575662</v>
+        <v>345.8781191575663</v>
       </c>
       <c r="L34" t="n">
         <v>634.2153292268919</v>
       </c>
       <c r="M34" t="n">
-        <v>944.3114118605729</v>
+        <v>944.3114118605725</v>
       </c>
       <c r="N34" t="n">
-        <v>1254.351439301971</v>
+        <v>1254.35143930197</v>
       </c>
       <c r="O34" t="n">
         <v>1530.75173433914</v>
       </c>
       <c r="P34" t="n">
-        <v>1755.167065391861</v>
+        <v>1755.16706539186</v>
       </c>
       <c r="Q34" t="n">
         <v>1851.465357724015</v>
@@ -6883,25 +6883,25 @@
         <v>1809.280799904774</v>
       </c>
       <c r="S34" t="n">
-        <v>1685.537218213618</v>
+        <v>1685.537218213617</v>
       </c>
       <c r="T34" t="n">
-        <v>1541.408809928767</v>
+        <v>1541.408809928766</v>
       </c>
       <c r="U34" t="n">
-        <v>1333.053272358923</v>
+        <v>1333.053272358924</v>
       </c>
       <c r="V34" t="n">
         <v>1159.156317623397</v>
       </c>
       <c r="W34" t="n">
-        <v>950.5266810567971</v>
+        <v>950.5266810567975</v>
       </c>
       <c r="X34" t="n">
-        <v>803.3246636291404</v>
+        <v>803.3246636291409</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.3196179559711</v>
+        <v>663.3196179559714</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6914,13 @@
         <v>1688.950839227093</v>
       </c>
       <c r="C35" t="n">
-        <v>1425.334123783881</v>
+        <v>1425.33412378388</v>
       </c>
       <c r="D35" t="n">
-        <v>1172.41422667433</v>
+        <v>1172.414226674329</v>
       </c>
       <c r="E35" t="n">
-        <v>891.9717755732846</v>
+        <v>891.9717755732845</v>
       </c>
       <c r="F35" t="n">
         <v>586.3316722808763</v>
@@ -6938,25 +6938,25 @@
         <v>285.4925656641198</v>
       </c>
       <c r="K35" t="n">
-        <v>414.4520872416963</v>
+        <v>735.3560456871492</v>
       </c>
       <c r="L35" t="n">
-        <v>1024.824141402508</v>
+        <v>1345.728099847961</v>
       </c>
       <c r="M35" t="n">
-        <v>1275.568805075574</v>
+        <v>1637.516041961357</v>
       </c>
       <c r="N35" t="n">
-        <v>1967.958043099041</v>
+        <v>1896.93182481696</v>
       </c>
       <c r="O35" t="n">
-        <v>2576.573928886718</v>
+        <v>2505.547710604637</v>
       </c>
       <c r="P35" t="n">
-        <v>3058.339123672798</v>
+        <v>2987.312905390717</v>
       </c>
       <c r="Q35" t="n">
-        <v>3271.876743309127</v>
+        <v>3271.876743309126</v>
       </c>
       <c r="R35" t="n">
         <v>3294.788377508206</v>
@@ -6971,16 +6971,16 @@
         <v>2996.258304655795</v>
       </c>
       <c r="V35" t="n">
-        <v>2770.541218809424</v>
+        <v>2770.541218809423</v>
       </c>
       <c r="W35" t="n">
-        <v>2523.118365036509</v>
+        <v>2523.118365036508</v>
       </c>
       <c r="X35" t="n">
         <v>2254.998408272628</v>
       </c>
       <c r="Y35" t="n">
-        <v>1970.204877794016</v>
+        <v>1970.204877794015</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J36" t="n">
-        <v>78.16261144815576</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K36" t="n">
-        <v>439.1040108713503</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L36" t="n">
-        <v>985.8386616179353</v>
+        <v>831.3025938062943</v>
       </c>
       <c r="M36" t="n">
-        <v>1214.783419759522</v>
+        <v>1060.247351947881</v>
       </c>
       <c r="N36" t="n">
-        <v>1464.196309318475</v>
+        <v>1309.660241506833</v>
       </c>
       <c r="O36" t="n">
-        <v>2060.064277387078</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P36" t="n">
-        <v>2521.297786732751</v>
+        <v>2366.76171892111</v>
       </c>
       <c r="Q36" t="n">
         <v>2622.386335855532</v>
@@ -7093,16 +7093,16 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J37" t="n">
-        <v>163.1935352742586</v>
+        <v>93.95187913703157</v>
       </c>
       <c r="K37" t="n">
-        <v>386.4993989927022</v>
+        <v>214.0083228080701</v>
       </c>
       <c r="L37" t="n">
-        <v>595.6567475077272</v>
+        <v>423.1656713230952</v>
       </c>
       <c r="M37" t="n">
-        <v>826.5729685871074</v>
+        <v>757.3313124498803</v>
       </c>
       <c r="N37" t="n">
         <v>1091.440898384383</v>
@@ -7154,16 +7154,16 @@
         <v>1425.334123783881</v>
       </c>
       <c r="D38" t="n">
-        <v>1172.414226674329</v>
+        <v>1172.41422667433</v>
       </c>
       <c r="E38" t="n">
-        <v>891.9717755732845</v>
+        <v>891.971775573285</v>
       </c>
       <c r="F38" t="n">
-        <v>586.3316722808763</v>
+        <v>586.3316722808768</v>
       </c>
       <c r="G38" t="n">
-        <v>274.9618382852427</v>
+        <v>274.961838285243</v>
       </c>
       <c r="H38" t="n">
         <v>65.89576755016412</v>
@@ -7172,25 +7172,25 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J38" t="n">
-        <v>118.0869166437668</v>
+        <v>118.0869166437667</v>
       </c>
       <c r="K38" t="n">
-        <v>247.0464382213432</v>
+        <v>450.0916668438658</v>
       </c>
       <c r="L38" t="n">
-        <v>850.2718802513705</v>
+        <v>1060.463721004678</v>
       </c>
       <c r="M38" t="n">
-        <v>1546.03494208234</v>
+        <v>1756.226782835647</v>
       </c>
       <c r="N38" t="n">
-        <v>2238.424180105808</v>
+        <v>2448.616020859115</v>
       </c>
       <c r="O38" t="n">
-        <v>2847.040065893485</v>
+        <v>3057.231906646791</v>
       </c>
       <c r="P38" t="n">
-        <v>3010.224539589797</v>
+        <v>3220.416380343103</v>
       </c>
       <c r="Q38" t="n">
         <v>3294.788377508206</v>
@@ -7205,7 +7205,7 @@
         <v>3144.574434711786</v>
       </c>
       <c r="U38" t="n">
-        <v>2996.258304655795</v>
+        <v>2996.258304655796</v>
       </c>
       <c r="V38" t="n">
         <v>2770.541218809424</v>
@@ -7214,7 +7214,7 @@
         <v>2523.118365036509</v>
       </c>
       <c r="X38" t="n">
-        <v>2254.998408272628</v>
+        <v>2254.998408272629</v>
       </c>
       <c r="Y38" t="n">
         <v>1970.204877794016</v>
@@ -7251,25 +7251,25 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J39" t="n">
-        <v>78.16261144815576</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K39" t="n">
-        <v>439.1040108713503</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L39" t="n">
-        <v>985.8386616179353</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M39" t="n">
-        <v>1214.783419759522</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N39" t="n">
-        <v>1464.196309318475</v>
+        <v>1589.026434305479</v>
       </c>
       <c r="O39" t="n">
-        <v>2060.064277387078</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P39" t="n">
-        <v>2521.297786732751</v>
+        <v>2366.76171892111</v>
       </c>
       <c r="Q39" t="n">
         <v>2622.386335855532</v>
@@ -7330,19 +7330,19 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J40" t="n">
-        <v>65.89576755016412</v>
+        <v>93.95187913703157</v>
       </c>
       <c r="K40" t="n">
-        <v>185.9522112212027</v>
+        <v>317.2577428554751</v>
       </c>
       <c r="L40" t="n">
-        <v>395.1095597362278</v>
+        <v>629.6645114179051</v>
       </c>
       <c r="M40" t="n">
-        <v>654.0818924024753</v>
+        <v>860.5807324972853</v>
       </c>
       <c r="N40" t="n">
-        <v>988.1914783369778</v>
+        <v>1091.440898384383</v>
       </c>
       <c r="O40" t="n">
         <v>1288.661331867251</v>
@@ -7394,13 +7394,13 @@
         <v>1172.41422667433</v>
       </c>
       <c r="E41" t="n">
-        <v>891.971775573285</v>
+        <v>891.9717755732851</v>
       </c>
       <c r="F41" t="n">
-        <v>586.331672280877</v>
+        <v>586.3316722808768</v>
       </c>
       <c r="G41" t="n">
-        <v>274.9618382852434</v>
+        <v>274.9618382852432</v>
       </c>
       <c r="H41" t="n">
         <v>65.89576755016412</v>
@@ -7409,25 +7409,25 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J41" t="n">
-        <v>118.0869166437668</v>
+        <v>118.0869166437667</v>
       </c>
       <c r="K41" t="n">
-        <v>247.0464382213432</v>
+        <v>450.0916668438649</v>
       </c>
       <c r="L41" t="n">
-        <v>850.2718802513709</v>
+        <v>1060.463721004677</v>
       </c>
       <c r="M41" t="n">
-        <v>1546.03494208234</v>
+        <v>1756.226782835646</v>
       </c>
       <c r="N41" t="n">
-        <v>2238.424180105808</v>
+        <v>2448.616020859114</v>
       </c>
       <c r="O41" t="n">
-        <v>2847.040065893485</v>
+        <v>3057.23190664679</v>
       </c>
       <c r="P41" t="n">
-        <v>3010.224539589798</v>
+        <v>3220.416380343103</v>
       </c>
       <c r="Q41" t="n">
         <v>3294.788377508206</v>
@@ -7436,10 +7436,10 @@
         <v>3294.788377508206</v>
       </c>
       <c r="S41" t="n">
-        <v>3252.399424646714</v>
+        <v>3252.399424646713</v>
       </c>
       <c r="T41" t="n">
-        <v>3144.574434711787</v>
+        <v>3144.574434711786</v>
       </c>
       <c r="U41" t="n">
         <v>2996.258304655796</v>
@@ -7488,25 +7488,25 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J42" t="n">
-        <v>78.16261144815576</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K42" t="n">
-        <v>439.1040108713503</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L42" t="n">
-        <v>985.8386616179353</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M42" t="n">
-        <v>1214.783419759522</v>
+        <v>1450.171048031843</v>
       </c>
       <c r="N42" t="n">
-        <v>1464.196309318475</v>
+        <v>1699.583937590796</v>
       </c>
       <c r="O42" t="n">
-        <v>2060.064277387078</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P42" t="n">
-        <v>2521.297786732751</v>
+        <v>2366.76171892111</v>
       </c>
       <c r="Q42" t="n">
         <v>2622.386335855532</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>383.0329732571498</v>
+        <v>383.0329732571496</v>
       </c>
       <c r="C43" t="n">
-        <v>319.4425918264421</v>
+        <v>319.442591826442</v>
       </c>
       <c r="D43" t="n">
-        <v>274.6717539113056</v>
+        <v>274.6717539113055</v>
       </c>
       <c r="E43" t="n">
-        <v>232.1044618261118</v>
+        <v>232.1044618261117</v>
       </c>
       <c r="F43" t="n">
-        <v>190.5603158254007</v>
+        <v>190.5603158254006</v>
       </c>
       <c r="G43" t="n">
-        <v>127.4662043234442</v>
+        <v>127.4662043234441</v>
       </c>
       <c r="H43" t="n">
-        <v>80.04154000532428</v>
+        <v>80.04154000532425</v>
       </c>
       <c r="I43" t="n">
         <v>65.89576755016412</v>
       </c>
       <c r="J43" t="n">
-        <v>65.89576755016412</v>
+        <v>163.1935352742586</v>
       </c>
       <c r="K43" t="n">
-        <v>185.9522112212027</v>
+        <v>283.2499789452972</v>
       </c>
       <c r="L43" t="n">
-        <v>395.1095597362278</v>
+        <v>595.6567475077272</v>
       </c>
       <c r="M43" t="n">
-        <v>626.025780815608</v>
+        <v>826.5729685871074</v>
       </c>
       <c r="N43" t="n">
-        <v>856.8859467027055</v>
+        <v>1091.440898384383</v>
       </c>
       <c r="O43" t="n">
-        <v>1082.162491772442</v>
+        <v>1288.661331867251</v>
       </c>
       <c r="P43" t="n">
-        <v>1330.647381318267</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q43" t="n">
         <v>1451.015232143526</v>
@@ -7603,16 +7603,16 @@
         <v>1030.836218885788</v>
       </c>
       <c r="V43" t="n">
-        <v>881.4975321771007</v>
+        <v>881.4975321771002</v>
       </c>
       <c r="W43" t="n">
-        <v>697.4261636373393</v>
+        <v>697.4261636373388</v>
       </c>
       <c r="X43" t="n">
-        <v>574.7824142365212</v>
+        <v>574.7824142365208</v>
       </c>
       <c r="Y43" t="n">
-        <v>459.3356365901903</v>
+        <v>459.33563659019</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>1688.950839227093</v>
       </c>
       <c r="C44" t="n">
-        <v>1425.334123783881</v>
+        <v>1425.33412378388</v>
       </c>
       <c r="D44" t="n">
-        <v>1172.41422667433</v>
+        <v>1172.414226674329</v>
       </c>
       <c r="E44" t="n">
-        <v>891.971775573285</v>
+        <v>891.9717755732845</v>
       </c>
       <c r="F44" t="n">
-        <v>586.3316722808768</v>
+        <v>586.3316722808763</v>
       </c>
       <c r="G44" t="n">
-        <v>274.961838285243</v>
+        <v>274.9618382852429</v>
       </c>
       <c r="H44" t="n">
         <v>65.89576755016412</v>
@@ -7646,28 +7646,28 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J44" t="n">
-        <v>118.0869166437668</v>
+        <v>118.0869166437667</v>
       </c>
       <c r="K44" t="n">
-        <v>567.9503966667963</v>
+        <v>567.9503966667962</v>
       </c>
       <c r="L44" t="n">
         <v>1178.322450827608</v>
       </c>
       <c r="M44" t="n">
-        <v>1874.085512658578</v>
+        <v>1429.067114500673</v>
       </c>
       <c r="N44" t="n">
-        <v>2425.704386660034</v>
+        <v>2121.456352524141</v>
       </c>
       <c r="O44" t="n">
-        <v>3034.320272447711</v>
+        <v>2730.072238311817</v>
       </c>
       <c r="P44" t="n">
-        <v>3197.504746144024</v>
+        <v>3211.837433097898</v>
       </c>
       <c r="Q44" t="n">
-        <v>3271.876743309127</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="R44" t="n">
         <v>3294.788377508206</v>
@@ -7679,19 +7679,19 @@
         <v>3144.574434711786</v>
       </c>
       <c r="U44" t="n">
-        <v>2996.258304655796</v>
+        <v>2996.258304655795</v>
       </c>
       <c r="V44" t="n">
-        <v>2770.541218809424</v>
+        <v>2770.541218809423</v>
       </c>
       <c r="W44" t="n">
-        <v>2523.118365036509</v>
+        <v>2523.118365036508</v>
       </c>
       <c r="X44" t="n">
-        <v>2254.998408272629</v>
+        <v>2254.998408272628</v>
       </c>
       <c r="Y44" t="n">
-        <v>1970.204877794016</v>
+        <v>1970.204877794015</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J45" t="n">
-        <v>131.6030584950056</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K45" t="n">
-        <v>492.5444579182001</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L45" t="n">
-        <v>1039.279108664785</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.223866806372</v>
+        <v>1450.171048031843</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.636756365324</v>
+        <v>1699.583937590796</v>
       </c>
       <c r="O45" t="n">
-        <v>2113.504724433928</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P45" t="n">
-        <v>2574.738233779601</v>
+        <v>2366.76171892111</v>
       </c>
       <c r="Q45" t="n">
         <v>2622.386335855532</v>
@@ -7798,31 +7798,31 @@
         <v>127.4662043234441</v>
       </c>
       <c r="H46" t="n">
-        <v>80.04154000532426</v>
+        <v>80.04154000532425</v>
       </c>
       <c r="I46" t="n">
         <v>65.89576755016412</v>
       </c>
       <c r="J46" t="n">
-        <v>163.1935352742586</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="K46" t="n">
-        <v>386.4993989927022</v>
+        <v>289.2016312686077</v>
       </c>
       <c r="L46" t="n">
-        <v>595.6567475077272</v>
+        <v>498.3589797836328</v>
       </c>
       <c r="M46" t="n">
-        <v>860.5807324972852</v>
+        <v>729.275200863013</v>
       </c>
       <c r="N46" t="n">
-        <v>1091.440898384383</v>
+        <v>960.1353667501104</v>
       </c>
       <c r="O46" t="n">
-        <v>1288.661331867251</v>
+        <v>1157.355800232979</v>
       </c>
       <c r="P46" t="n">
-        <v>1433.896801365672</v>
+        <v>1330.647381318267</v>
       </c>
       <c r="Q46" t="n">
         <v>1451.015232143526</v>
@@ -7840,10 +7840,10 @@
         <v>1030.836218885788</v>
       </c>
       <c r="V46" t="n">
-        <v>881.4975321771003</v>
+        <v>881.4975321771002</v>
       </c>
       <c r="W46" t="n">
-        <v>697.426163637339</v>
+        <v>697.4261636373388</v>
       </c>
       <c r="X46" t="n">
         <v>574.7824142365208</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0154044317238</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>23.06185410720676</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>267.0033956675395</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>300.9906082978675</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.8663129702899</v>
+        <v>204.3040445827105</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>161.3366959255159</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>160.7252713562828</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>376.1394827553226</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>111.6742457427439</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>398.8885232487884</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>390.1298170038004</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>183.868336203838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>47.117863000852</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>111.6742457427436</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>111.6742457427439</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>160.7252713562825</v>
       </c>
       <c r="M20" t="n">
-        <v>398.8885232487884</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>371.53126013167</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>53.98024954227223</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>111.6742457427436</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>398.8885232487884</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>160.7252713562828</v>
       </c>
       <c r="P23" t="n">
-        <v>182.3593343193204</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>42.57335502542705</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>271.3465277953094</v>
       </c>
       <c r="N24" t="n">
-        <v>111.6742457427439</v>
+        <v>400.2337496266802</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,19 +9884,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>254.7810278906988</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.4973491286761</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>42.57335502542705</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>111.6742457427437</v>
+        <v>111.674245742744</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>156.6685744195865</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>312.0472211515121</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>237.7652810831524</v>
+        <v>111.674245742744</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10352,13 +10352,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>404.8435730192229</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>413.5528271140485</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>111.674245742744</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>111.6742457427437</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,16 +10586,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>41.45785701043528</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>140.5713358295203</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>88.65227176947388</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>53.98024954227269</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>205.0961905278007</v>
       </c>
       <c r="L38" t="n">
-        <v>410.4424144183447</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.57335502542705</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427445</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>53.98024954227269</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>205.0961905277998</v>
       </c>
       <c r="L41" t="n">
-        <v>410.4424144183452</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>42.57335502542705</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>111.6742457427445</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.98024954227269</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,22 +11303,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>295.1546375210638</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>8.66560327798507</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>53.98024954227256</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>111.6742457427445</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,19 +23258,19 @@
         <v>305.3102796803863</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>287.8493297879132</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5068080891675</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>329.4524837586172</v>
+        <v>206.5122344792739</v>
       </c>
       <c r="G11" t="n">
-        <v>335.1249171548103</v>
+        <v>335.1249171548102</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.83384483201115</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>133.6155215347106</v>
+        <v>133.6155215347105</v>
       </c>
       <c r="U11" t="n">
-        <v>46.87899634412521</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>271.8174067343187</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>292.3075386953747</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.8143766729593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>60.9393771540185</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>16.62056876040565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.31880839361165</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>305.3102796803863</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2594796375887</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5068080891675</v>
       </c>
       <c r="F14" t="n">
-        <v>329.4524837586172</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>68.8338448320111</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>153.1834036539774</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>250.3286964870406</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>308.8143766729593</v>
+        <v>139.7301146345367</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>20.06628092427762</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>40.87309622974148</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.93937715402026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1102709.015511211</v>
+        <v>1102709.015511212</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286746.7185509635</v>
+        <v>286746.7185509634</v>
       </c>
       <c r="C2" t="n">
         <v>286746.7185509634</v>
@@ -26320,22 +26320,22 @@
         <v>286746.7185509634</v>
       </c>
       <c r="E2" t="n">
-        <v>235049.6772578988</v>
+        <v>235049.6772578987</v>
       </c>
       <c r="F2" t="n">
-        <v>257078.4752242788</v>
+        <v>257078.4752242786</v>
       </c>
       <c r="G2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="H2" t="n">
         <v>287364.6194524991</v>
       </c>
       <c r="I2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="J2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="K2" t="n">
         <v>287364.619452499</v>
@@ -26344,10 +26344,10 @@
         <v>287364.6194524991</v>
       </c>
       <c r="M2" t="n">
+        <v>287364.619452499</v>
+      </c>
+      <c r="N2" t="n">
         <v>287364.6194524991</v>
-      </c>
-      <c r="N2" t="n">
-        <v>287364.619452499</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524991</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>746256.1644166391</v>
+        <v>746256.1644166389</v>
       </c>
       <c r="F3" t="n">
-        <v>58378.43698898885</v>
+        <v>58378.43698898882</v>
       </c>
       <c r="G3" t="n">
-        <v>59877.36107027681</v>
+        <v>59877.36107027675</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73573.91951487756</v>
+        <v>73573.91951487766</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>59877.3610702768</v>
+        <v>59877.36107027675</v>
       </c>
       <c r="M3" t="n">
         <v>107779.8354573343</v>
       </c>
       <c r="N3" t="n">
-        <v>49902.8201154592</v>
+        <v>49902.82011545923</v>
       </c>
       <c r="O3" t="n">
-        <v>4106.365438248895</v>
+        <v>4106.365438248951</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>132767.5489705623</v>
+        <v>132767.5489705625</v>
       </c>
       <c r="F4" t="n">
-        <v>153149.3497879656</v>
+        <v>153149.3497879657</v>
       </c>
       <c r="G4" t="n">
         <v>202349.5883717044</v>
@@ -26442,7 +26442,7 @@
         <v>189330.9659432833</v>
       </c>
       <c r="K4" t="n">
-        <v>189330.9659432833</v>
+        <v>189330.9659432834</v>
       </c>
       <c r="L4" t="n">
         <v>189330.9659432834</v>
@@ -26482,22 +26482,22 @@
         <v>61096.26649466871</v>
       </c>
       <c r="G5" t="n">
-        <v>67388.55382944009</v>
+        <v>67388.55382944008</v>
       </c>
       <c r="H5" t="n">
-        <v>67388.55382944009</v>
+        <v>67388.55382944008</v>
       </c>
       <c r="I5" t="n">
         <v>67388.55382944009</v>
       </c>
       <c r="J5" t="n">
-        <v>77453.80406787344</v>
+        <v>77453.80406787345</v>
       </c>
       <c r="K5" t="n">
         <v>77453.80406787344</v>
       </c>
       <c r="L5" t="n">
-        <v>77453.80406787344</v>
+        <v>77453.80406787345</v>
       </c>
       <c r="M5" t="n">
         <v>73784.19097745875</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-177779.3908917124</v>
+        <v>-177783.8044695806</v>
       </c>
       <c r="C6" t="n">
-        <v>-177779.3908917124</v>
+        <v>-177783.8044695805</v>
       </c>
       <c r="D6" t="n">
-        <v>-177779.3908917124</v>
+        <v>-177783.8044695805</v>
       </c>
       <c r="E6" t="n">
-        <v>-692682.5647958841</v>
+        <v>-693056.242954417</v>
       </c>
       <c r="F6" t="n">
-        <v>-15545.57804734433</v>
+        <v>-15761.90764897474</v>
       </c>
       <c r="G6" t="n">
-        <v>-42250.8838189221</v>
+        <v>-42250.883818922</v>
       </c>
       <c r="H6" t="n">
-        <v>17626.47725135458</v>
+        <v>17626.47725135462</v>
       </c>
       <c r="I6" t="n">
-        <v>17626.47725135484</v>
+        <v>17626.47725135469</v>
       </c>
       <c r="J6" t="n">
-        <v>-52994.07007353536</v>
+        <v>-52994.07007353555</v>
       </c>
       <c r="K6" t="n">
-        <v>20579.84944134219</v>
+        <v>20579.84944134216</v>
       </c>
       <c r="L6" t="n">
-        <v>-39297.51162893446</v>
+        <v>-39297.5116289345</v>
       </c>
       <c r="M6" t="n">
-        <v>-88084.95294468792</v>
+        <v>-88084.952944688</v>
       </c>
       <c r="N6" t="n">
-        <v>-30207.93760281292</v>
+        <v>-30207.93760281295</v>
       </c>
       <c r="O6" t="n">
-        <v>15588.5170743975</v>
+        <v>15588.51707439742</v>
       </c>
       <c r="P6" t="n">
-        <v>19694.88251264641</v>
+        <v>19694.88251264629</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="G2" t="n">
         <v>152.2702633209403</v>
@@ -26707,13 +26707,13 @@
         <v>152.2702633209403</v>
       </c>
       <c r="J2" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="K2" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="L2" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="M2" t="n">
         <v>104.2923434822273</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="F3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
       <c r="G3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
       <c r="H3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
       <c r="I3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
       <c r="J3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
       <c r="K3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
       <c r="L3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
       <c r="M3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
       <c r="N3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
       <c r="O3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
       <c r="P3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
     </row>
     <row r="4">
@@ -26799,37 +26799,37 @@
         <v>448.4202733404287</v>
       </c>
       <c r="F4" t="n">
-        <v>652.1659613023897</v>
+        <v>652.1659613023896</v>
       </c>
       <c r="G4" t="n">
-        <v>652.1659613023897</v>
+        <v>652.1659613023895</v>
       </c>
       <c r="H4" t="n">
-        <v>652.1659613023897</v>
+        <v>652.1659613023895</v>
       </c>
       <c r="I4" t="n">
-        <v>652.1659613023897</v>
+        <v>652.1659613023896</v>
       </c>
       <c r="J4" t="n">
+        <v>917.6700587654643</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.6700587654642</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.6700587654641</v>
-      </c>
       <c r="L4" t="n">
-        <v>917.6700587654642</v>
+        <v>917.6700587654643</v>
       </c>
       <c r="M4" t="n">
+        <v>823.6970943770515</v>
+      </c>
+      <c r="N4" t="n">
         <v>823.6970943770516</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>823.6970943770515</v>
       </c>
-      <c r="O4" t="n">
-        <v>823.6970943770516</v>
-      </c>
       <c r="P4" t="n">
-        <v>823.6970943770516</v>
+        <v>823.6970943770515</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.84670133784601</v>
+        <v>74.84670133784594</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.132956797811133</v>
+        <v>5.132956797811175</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.846701337846</v>
+        <v>74.84670133784594</v>
       </c>
       <c r="M2" t="n">
-        <v>24.31268534657012</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797811119</v>
+        <v>5.13295679781119</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,31 +27021,31 @@
         <v>448.4202733404287</v>
       </c>
       <c r="F4" t="n">
+        <v>203.7456879619609</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>265.5040974630747</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>354.4473089520159</v>
+      </c>
+      <c r="N4" t="n">
         <v>203.745687961961</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>265.5040974630745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>354.4473089520161</v>
-      </c>
-      <c r="N4" t="n">
-        <v>203.7456879619609</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784601</v>
+        <v>74.84670133784594</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797811133</v>
+        <v>5.132956797811175</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>448.4202733404287</v>
       </c>
       <c r="N4" t="n">
-        <v>203.745687961961</v>
+        <v>203.7456879619609</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="C11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="D11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="E11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="G11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="H11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="I11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="T11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="U11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="V11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="W11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="X11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.42356198309426</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F12" t="n">
-        <v>77.42356198309426</v>
+        <v>55.22536670000727</v>
       </c>
       <c r="G12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="H12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="I12" t="n">
-        <v>16.46064601183557</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="T12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="U12" t="n">
-        <v>77.42356198309426</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>77.42356198309426</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="X12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>77.42356198309433</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="C13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="D13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="E13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="G13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="H13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="I13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="J13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="K13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="L13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="M13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="N13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="O13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="P13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="R13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="S13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="T13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="U13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="V13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="W13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="X13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="C14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="D14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="E14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="G14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="H14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="I14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="T14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="U14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="V14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="W14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="X14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="C16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="D16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="E16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="F16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="G16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="H16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="I16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="J16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="K16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="L16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="M16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="N16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="O16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="P16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="R16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="S16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="T16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="U16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="V16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="W16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="X16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309433</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>152.2702633209403</v>
       </c>
       <c r="I17" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28691,10 +28691,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J19" t="n">
-        <v>6.011770023545949</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>152.2702633209403</v>
       </c>
       <c r="T19" t="n">
-        <v>152.2702633209403</v>
+        <v>9.254551223040608</v>
       </c>
       <c r="U19" t="n">
         <v>152.2702633209403</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>3.242781199494289</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="Y19" t="n">
         <v>152.2702633209403</v>
@@ -28819,7 +28819,7 @@
         <v>152.2702633209403</v>
       </c>
       <c r="I20" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28968,16 +28968,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>124.1477063017371</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H22" t="n">
         <v>151.2427611571659</v>
       </c>
       <c r="I22" t="n">
-        <v>118.2966582128358</v>
+        <v>97.02331649164203</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>152.2702633209403</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2702633209403</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>152.2702633209403</v>
@@ -29056,7 +29056,7 @@
         <v>152.2702633209403</v>
       </c>
       <c r="I23" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29202,16 +29202,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>120.6874065977306</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>152.2702633209403</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.2427611571659</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2702633209403</v>
+        <v>120.7019941378675</v>
       </c>
       <c r="T25" t="n">
         <v>152.2702633209403</v>
@@ -29253,7 +29253,7 @@
         <v>152.2702633209403</v>
       </c>
       <c r="V25" t="n">
-        <v>152.2702633209403</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>152.2702633209403</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="C26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="D26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="E26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="F26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="G26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="H26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="I26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="T26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="U26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="V26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="W26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="X26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="C28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="D28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="E28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="F28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="G28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="H28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="I28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="J28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="K28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="L28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="M28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="N28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="O28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="P28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="R28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="S28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="T28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="U28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="V28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="W28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="X28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="C29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="D29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="E29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="F29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="G29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="H29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="I29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="T29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="U29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="V29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="W29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="X29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="C31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="D31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="E31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="F31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="H31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="I31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="J31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="K31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="L31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="M31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="N31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="O31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="P31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="R31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="S31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="T31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="U31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="V31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="W31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="X31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565712</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="C32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="D32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="E32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="F32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="G32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="H32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="I32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="T32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="U32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="V32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="W32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="X32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="C34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="D34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="E34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="F34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="H34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="I34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="J34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="K34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="L34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="M34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="N34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="O34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="P34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="R34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="S34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="T34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="U34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="V34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="W34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="X34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565712</v>
       </c>
     </row>
     <row r="35">
@@ -30165,19 +30165,19 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J37" t="n">
+        <v>34.35127667694742</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="K37" t="n">
+      <c r="N37" t="n">
         <v>104.2923434822273</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>34.35127667694735</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30402,22 +30402,22 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J40" t="n">
-        <v>6.011770023545949</v>
+        <v>34.35127667694742</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="M40" t="n">
-        <v>28.33950665340134</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30639,28 +30639,28 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J43" t="n">
-        <v>6.011770023545949</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>34.35127667694738</v>
       </c>
       <c r="O43" t="n">
-        <v>28.33950665340157</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>104.2923434822273</v>
@@ -30876,7 +30876,7 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J46" t="n">
-        <v>104.2923434822273</v>
+        <v>6.011770023545964</v>
       </c>
       <c r="K46" t="n">
         <v>104.2923434822273</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>34.35127667694726</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,10 +30894,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>28.33950665340126</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="R46" t="n">
         <v>104.2923434822273</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H11" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I11" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J11" t="n">
         <v>233.7642369444667</v>
       </c>
       <c r="K11" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L11" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M11" t="n">
-        <v>483.6236712808741</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N11" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O11" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P11" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q11" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R11" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S11" t="n">
-        <v>62.76266277113992</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T11" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I12" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J12" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K12" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L12" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M12" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N12" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O12" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P12" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q12" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R12" t="n">
-        <v>91.49607353805312</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S12" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T12" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I13" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J13" t="n">
-        <v>87.34741009312683</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K13" t="n">
         <v>143.5386268471339</v>
@@ -31929,28 +31929,28 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N13" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O13" t="n">
         <v>174.6274311595649</v>
       </c>
       <c r="P13" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q13" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R13" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S13" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T13" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H14" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I14" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J14" t="n">
         <v>233.7642369444667</v>
@@ -32005,31 +32005,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M14" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N14" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O14" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P14" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q14" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R14" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S14" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T14" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I15" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J15" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K15" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L15" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M15" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N15" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O15" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P15" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q15" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R15" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S15" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T15" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,7 +32154,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J16" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K16" t="n">
         <v>143.5386268471339</v>
@@ -32172,22 +32172,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P16" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q16" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R16" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S16" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T16" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H17" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I17" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J17" t="n">
         <v>233.7642369444667</v>
@@ -32242,31 +32242,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M17" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N17" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O17" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P17" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q17" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R17" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S17" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T17" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I18" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J18" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K18" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L18" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M18" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N18" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O18" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P18" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q18" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R18" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S18" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T18" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,7 +32391,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J19" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K19" t="n">
         <v>143.5386268471339</v>
@@ -32409,22 +32409,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P19" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q19" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R19" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S19" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T19" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H20" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I20" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J20" t="n">
         <v>233.7642369444667</v>
@@ -32479,31 +32479,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M20" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N20" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O20" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P20" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q20" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R20" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S20" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T20" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I21" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J21" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K21" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L21" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M21" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N21" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O21" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P21" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q21" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R21" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S21" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T21" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,7 +32628,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J22" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K22" t="n">
         <v>143.5386268471339</v>
@@ -32646,22 +32646,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P22" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q22" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R22" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S22" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T22" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H23" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I23" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J23" t="n">
         <v>233.7642369444667</v>
@@ -32716,31 +32716,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M23" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N23" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O23" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P23" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q23" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R23" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S23" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T23" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I24" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J24" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K24" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L24" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M24" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N24" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O24" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P24" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q24" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R24" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S24" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T24" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,7 +32865,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J25" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K25" t="n">
         <v>143.5386268471339</v>
@@ -32883,22 +32883,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P25" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q25" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R25" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S25" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T25" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H26" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I26" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J26" t="n">
         <v>233.7642369444667</v>
@@ -32953,31 +32953,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M26" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N26" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O26" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P26" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q26" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R26" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S26" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T26" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I27" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J27" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K27" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L27" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M27" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N27" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O27" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P27" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q27" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R27" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S27" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T27" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,7 +33102,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J28" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K28" t="n">
         <v>143.5386268471339</v>
@@ -33120,22 +33120,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P28" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q28" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R28" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S28" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T28" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H29" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I29" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J29" t="n">
         <v>233.7642369444667</v>
@@ -33190,31 +33190,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M29" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N29" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O29" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P29" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q29" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R29" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S29" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T29" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I30" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J30" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K30" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L30" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M30" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N30" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O30" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P30" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q30" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R30" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S30" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T30" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,7 +33339,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J31" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K31" t="n">
         <v>143.5386268471339</v>
@@ -33357,22 +33357,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P31" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q31" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R31" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S31" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T31" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H32" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I32" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J32" t="n">
         <v>233.7642369444667</v>
@@ -33427,31 +33427,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M32" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N32" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O32" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P32" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q32" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R32" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S32" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T32" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I33" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J33" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K33" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L33" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M33" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N33" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O33" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P33" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q33" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R33" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S33" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T33" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,7 +33576,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J34" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K34" t="n">
         <v>143.5386268471339</v>
@@ -33594,22 +33594,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P34" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q34" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R34" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S34" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T34" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H35" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I35" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J35" t="n">
         <v>233.7642369444667</v>
@@ -33664,31 +33664,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M35" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N35" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O35" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P35" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q35" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R35" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S35" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T35" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I36" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J36" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K36" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L36" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M36" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N36" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O36" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P36" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q36" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R36" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S36" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T36" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,7 +33813,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J37" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K37" t="n">
         <v>143.5386268471339</v>
@@ -33831,22 +33831,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P37" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q37" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R37" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S37" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T37" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H38" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I38" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J38" t="n">
         <v>233.7642369444667</v>
@@ -33901,31 +33901,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M38" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N38" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O38" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P38" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q38" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R38" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S38" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T38" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I39" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J39" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K39" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L39" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M39" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N39" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O39" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P39" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q39" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R39" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S39" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T39" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,7 +34050,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J40" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K40" t="n">
         <v>143.5386268471339</v>
@@ -34068,22 +34068,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P40" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q40" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R40" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S40" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T40" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H41" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I41" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J41" t="n">
         <v>233.7642369444667</v>
@@ -34138,31 +34138,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M41" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N41" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O41" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P41" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q41" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R41" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S41" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T41" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I42" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J42" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K42" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L42" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M42" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N42" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O42" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P42" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q42" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R42" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S42" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T42" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,7 +34287,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J43" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K43" t="n">
         <v>143.5386268471339</v>
@@ -34305,22 +34305,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P43" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q43" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R43" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S43" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T43" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H44" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I44" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J44" t="n">
         <v>233.7642369444667</v>
@@ -34375,31 +34375,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M44" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N44" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O44" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P44" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q44" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R44" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S44" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T44" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I45" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J45" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K45" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L45" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M45" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N45" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O45" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P45" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q45" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R45" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S45" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T45" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,7 +34524,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J46" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K46" t="n">
         <v>143.5386268471339</v>
@@ -34542,22 +34542,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P46" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q46" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R46" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S46" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T46" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>221.7337368495042</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K11" t="n">
-        <v>130.262143007653</v>
+        <v>130.2621430076529</v>
       </c>
       <c r="L11" t="n">
-        <v>198.8762138948141</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M11" t="n">
-        <v>253.2774380536013</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N11" t="n">
-        <v>262.0361442985894</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O11" t="n">
-        <v>233.9633397349078</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P11" t="n">
-        <v>164.8328017134471</v>
+        <v>187.8946558206538</v>
       </c>
       <c r="Q11" t="n">
-        <v>287.4382201196048</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R11" t="n">
-        <v>23.14306484755539</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>12.39075141211276</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K12" t="n">
-        <v>100.1220351320624</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L12" t="n">
-        <v>448.4202733404287</v>
+        <v>181.4168776728891</v>
       </c>
       <c r="M12" t="n">
-        <v>231.2573314561483</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N12" t="n">
-        <v>251.9322116757095</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O12" t="n">
-        <v>208.024517156203</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P12" t="n">
-        <v>448.4202733404287</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.99570900658381</v>
+        <v>252.4334406190044</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.41179195954831</v>
+        <v>71.41179195954835</v>
       </c>
       <c r="K13" t="n">
         <v>198.6926970043453</v>
@@ -35574,7 +35574,7 @@
         <v>288.6936109881701</v>
       </c>
       <c r="M13" t="n">
-        <v>310.6722701440843</v>
+        <v>310.6722701440844</v>
       </c>
       <c r="N13" t="n">
         <v>310.6156487377382</v>
@@ -35586,7 +35586,7 @@
         <v>224.1260564259431</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.71490620314879</v>
+        <v>94.71490620314883</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>214.0550283432964</v>
+        <v>221.8149475898542</v>
       </c>
       <c r="K14" t="n">
         <v>454.4075555788177</v>
       </c>
       <c r="L14" t="n">
-        <v>198.8762138948141</v>
+        <v>198.876213894814</v>
       </c>
       <c r="M14" t="n">
         <v>253.2774380536013</v>
       </c>
       <c r="N14" t="n">
-        <v>262.0361442985894</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O14" t="n">
-        <v>614.7635209976531</v>
+        <v>394.6886110911905</v>
       </c>
       <c r="P14" t="n">
-        <v>486.6315098849298</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q14" t="n">
-        <v>75.12322945970007</v>
+        <v>287.4382201196047</v>
       </c>
       <c r="R14" t="n">
-        <v>23.14306484755539</v>
+        <v>23.14306484755537</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>138.4817867525216</v>
       </c>
       <c r="K15" t="n">
-        <v>364.587272144641</v>
+        <v>100.1220351320623</v>
       </c>
       <c r="L15" t="n">
-        <v>552.2572229763484</v>
+        <v>552.2572229763483</v>
       </c>
       <c r="M15" t="n">
-        <v>231.2573314561483</v>
+        <v>607.3968142114708</v>
       </c>
       <c r="N15" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O15" t="n">
-        <v>319.698762898947</v>
+        <v>208.024517156203</v>
       </c>
       <c r="P15" t="n">
-        <v>465.8924336824984</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q15" t="n">
         <v>258.206683772143</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.41179195954831</v>
+        <v>71.41179195954837</v>
       </c>
       <c r="K16" t="n">
-        <v>198.6926970043453</v>
+        <v>198.6926970043454</v>
       </c>
       <c r="L16" t="n">
-        <v>288.6936109881701</v>
+        <v>288.6936109881702</v>
       </c>
       <c r="M16" t="n">
-        <v>310.6722701440843</v>
+        <v>310.6722701440844</v>
       </c>
       <c r="N16" t="n">
         <v>310.6156487377382</v>
@@ -35823,7 +35823,7 @@
         <v>224.1260564259431</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.71490620314879</v>
+        <v>94.71490620314884</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.71833241778046</v>
+        <v>221.8149475898542</v>
       </c>
       <c r="K17" t="n">
-        <v>130.262143007653</v>
+        <v>454.4075555788177</v>
       </c>
       <c r="L17" t="n">
-        <v>616.5374284452646</v>
+        <v>198.876213894814</v>
       </c>
       <c r="M17" t="n">
-        <v>652.1659613023897</v>
+        <v>253.2774380536013</v>
       </c>
       <c r="N17" t="n">
-        <v>652.1659613023897</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O17" t="n">
-        <v>233.9633397349078</v>
+        <v>417.8316759387457</v>
       </c>
       <c r="P17" t="n">
-        <v>164.8328017134471</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q17" t="n">
-        <v>75.12322945970007</v>
+        <v>287.4382201196047</v>
       </c>
       <c r="R17" t="n">
-        <v>4.544507975424954</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>138.4817867525216</v>
       </c>
       <c r="K18" t="n">
-        <v>364.587272144641</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L18" t="n">
-        <v>552.2572229763484</v>
+        <v>552.2572229763483</v>
       </c>
       <c r="M18" t="n">
-        <v>231.2573314561483</v>
+        <v>342.9315771988917</v>
       </c>
       <c r="N18" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O18" t="n">
-        <v>319.698762898947</v>
+        <v>208.024517156203</v>
       </c>
       <c r="P18" t="n">
-        <v>465.8924336824984</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q18" t="n">
         <v>258.206683772143</v>
@@ -36045,7 +36045,7 @@
         <v>121.2691350212511</v>
       </c>
       <c r="L19" t="n">
-        <v>211.2700490050759</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M19" t="n">
         <v>233.2487081609901</v>
@@ -36057,10 +36057,10 @@
         <v>199.2125590736046</v>
       </c>
       <c r="P19" t="n">
-        <v>146.7024944428489</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.29134422005453</v>
+        <v>17.29134422005451</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>52.71833241778046</v>
+        <v>221.8149475898542</v>
       </c>
       <c r="K20" t="n">
-        <v>130.262143007653</v>
+        <v>454.4075555788177</v>
       </c>
       <c r="L20" t="n">
-        <v>616.5374284452646</v>
+        <v>359.6014852510965</v>
       </c>
       <c r="M20" t="n">
-        <v>652.1659613023897</v>
+        <v>253.2774380536013</v>
       </c>
       <c r="N20" t="n">
-        <v>633.5674044302593</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O20" t="n">
-        <v>233.9633397349078</v>
+        <v>233.9633397349077</v>
       </c>
       <c r="P20" t="n">
-        <v>164.8328017134471</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q20" t="n">
-        <v>75.12322945970007</v>
+        <v>287.4382201196047</v>
       </c>
       <c r="R20" t="n">
-        <v>23.14306484755539</v>
+        <v>23.14306484755537</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>66.371000954385</v>
+        <v>138.4817867525216</v>
       </c>
       <c r="K21" t="n">
-        <v>364.587272144641</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L21" t="n">
-        <v>552.2572229763484</v>
+        <v>552.2572229763483</v>
       </c>
       <c r="M21" t="n">
-        <v>231.2573314561483</v>
+        <v>342.9315771988917</v>
       </c>
       <c r="N21" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O21" t="n">
-        <v>601.8868364329326</v>
+        <v>208.024517156203</v>
       </c>
       <c r="P21" t="n">
-        <v>465.8924336824984</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q21" t="n">
-        <v>48.12939603629391</v>
+        <v>258.206683772143</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>121.2691350212511</v>
       </c>
       <c r="L22" t="n">
-        <v>211.2700490050759</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M22" t="n">
         <v>233.2487081609901</v>
@@ -36294,10 +36294,10 @@
         <v>199.2125590736046</v>
       </c>
       <c r="P22" t="n">
-        <v>146.7024944428489</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.29134422005453</v>
+        <v>17.29134422005451</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>52.71833241778046</v>
+        <v>221.8149475898542</v>
       </c>
       <c r="K23" t="n">
-        <v>130.262143007653</v>
+        <v>454.4075555788177</v>
       </c>
       <c r="L23" t="n">
-        <v>616.5374284452646</v>
+        <v>198.876213894814</v>
       </c>
       <c r="M23" t="n">
-        <v>652.1659613023897</v>
+        <v>253.2774380536013</v>
       </c>
       <c r="N23" t="n">
-        <v>262.0361442985894</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O23" t="n">
-        <v>233.9633397349078</v>
+        <v>394.6886110911905</v>
       </c>
       <c r="P23" t="n">
-        <v>347.1921360327675</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q23" t="n">
-        <v>287.4382201196048</v>
+        <v>287.4382201196047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>23.14306484755537</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>138.4817867525216</v>
       </c>
       <c r="K24" t="n">
-        <v>364.587272144641</v>
+        <v>100.1220351320623</v>
       </c>
       <c r="L24" t="n">
-        <v>552.2572229763484</v>
+        <v>181.4168776728891</v>
       </c>
       <c r="M24" t="n">
-        <v>231.2573314561483</v>
+        <v>502.6038592514575</v>
       </c>
       <c r="N24" t="n">
-        <v>363.6064574184534</v>
+        <v>652.1659613023896</v>
       </c>
       <c r="O24" t="n">
-        <v>208.024517156203</v>
+        <v>601.8868364329326</v>
       </c>
       <c r="P24" t="n">
-        <v>465.8924336824984</v>
+        <v>147.4296650425612</v>
       </c>
       <c r="Q24" t="n">
         <v>258.206683772143</v>
@@ -36519,7 +36519,7 @@
         <v>121.2691350212511</v>
       </c>
       <c r="L25" t="n">
-        <v>211.2700490050759</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M25" t="n">
         <v>233.2487081609901</v>
@@ -36531,10 +36531,10 @@
         <v>199.2125590736046</v>
       </c>
       <c r="P25" t="n">
-        <v>146.7024944428489</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.29134422005453</v>
+        <v>17.29134422005451</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>221.8149475898542</v>
       </c>
       <c r="K26" t="n">
-        <v>454.4075555788177</v>
+        <v>130.2621430076529</v>
       </c>
       <c r="L26" t="n">
-        <v>616.5374284452646</v>
+        <v>616.5374284452645</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7909715464339</v>
+        <v>702.7909715464338</v>
       </c>
       <c r="N26" t="n">
-        <v>262.0361442985894</v>
+        <v>699.3830687105734</v>
       </c>
       <c r="O26" t="n">
-        <v>614.7635209976531</v>
+        <v>488.7443676256065</v>
       </c>
       <c r="P26" t="n">
-        <v>486.6315098849298</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q26" t="n">
-        <v>274.6205785883762</v>
+        <v>287.4382201196047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>138.4817867525216</v>
       </c>
       <c r="K27" t="n">
-        <v>364.587272144641</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L27" t="n">
-        <v>552.2572229763484</v>
+        <v>552.2572229763483</v>
       </c>
       <c r="M27" t="n">
-        <v>231.2573314561483</v>
+        <v>231.2573314561482</v>
       </c>
       <c r="N27" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O27" t="n">
-        <v>319.6987628989468</v>
+        <v>319.698762898947</v>
       </c>
       <c r="P27" t="n">
-        <v>465.8924336824984</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q27" t="n">
         <v>258.206683772143</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.9678881121112</v>
+        <v>73.96788811211115</v>
       </c>
       <c r="K28" t="n">
         <v>201.2487931569082</v>
       </c>
       <c r="L28" t="n">
-        <v>291.249707140733</v>
+        <v>291.2497071407329</v>
       </c>
       <c r="M28" t="n">
-        <v>313.2283662966473</v>
+        <v>313.2283662966472</v>
       </c>
       <c r="N28" t="n">
-        <v>313.1717448903011</v>
+        <v>313.171744890301</v>
       </c>
       <c r="O28" t="n">
         <v>279.1922172092617</v>
@@ -36771,7 +36771,7 @@
         <v>226.682152578506</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.27100235571167</v>
+        <v>97.27100235571163</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>221.8149475898542</v>
+        <v>52.7183324177804</v>
       </c>
       <c r="K29" t="n">
         <v>454.4075555788177</v>
       </c>
       <c r="L29" t="n">
-        <v>355.5447883144006</v>
+        <v>616.5374284452645</v>
       </c>
       <c r="M29" t="n">
-        <v>702.7909715464339</v>
+        <v>702.7909715464338</v>
       </c>
       <c r="N29" t="n">
-        <v>699.3830687105735</v>
+        <v>699.3830687105734</v>
       </c>
       <c r="O29" t="n">
-        <v>614.7635209976531</v>
+        <v>546.0105608864197</v>
       </c>
       <c r="P29" t="n">
-        <v>486.6315098849298</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q29" t="n">
-        <v>75.12322945970007</v>
+        <v>75.12322945970001</v>
       </c>
       <c r="R29" t="n">
-        <v>23.14306484755539</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12.39075141211276</v>
+        <v>138.4817867525216</v>
       </c>
       <c r="K30" t="n">
-        <v>364.587272144641</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L30" t="n">
-        <v>552.2572229763484</v>
+        <v>552.2572229763483</v>
       </c>
       <c r="M30" t="n">
-        <v>231.2573314561483</v>
+        <v>231.2573314561482</v>
       </c>
       <c r="N30" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O30" t="n">
-        <v>445.7897982393555</v>
+        <v>319.698762898947</v>
       </c>
       <c r="P30" t="n">
-        <v>465.8924336824984</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q30" t="n">
         <v>258.206683772143</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.96788811211121</v>
+        <v>73.96788811211115</v>
       </c>
       <c r="K31" t="n">
         <v>201.2487931569082</v>
       </c>
       <c r="L31" t="n">
-        <v>291.249707140733</v>
+        <v>291.2497071407329</v>
       </c>
       <c r="M31" t="n">
-        <v>313.2283662966473</v>
+        <v>313.2283662966472</v>
       </c>
       <c r="N31" t="n">
-        <v>313.1717448903011</v>
+        <v>313.171744890301</v>
       </c>
       <c r="O31" t="n">
-        <v>279.1922172092618</v>
+        <v>279.1922172092617</v>
       </c>
       <c r="P31" t="n">
         <v>226.682152578506</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.27100235571169</v>
+        <v>97.27100235571163</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>454.4075555788177</v>
       </c>
       <c r="L32" t="n">
-        <v>616.5374284452646</v>
+        <v>603.7197869140369</v>
       </c>
       <c r="M32" t="n">
-        <v>253.2774380536013</v>
+        <v>702.7909715464338</v>
       </c>
       <c r="N32" t="n">
-        <v>675.5889714126379</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O32" t="n">
-        <v>614.7635209976531</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P32" t="n">
-        <v>486.6315098849298</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q32" t="n">
-        <v>287.4382201196048</v>
+        <v>287.4382201196047</v>
       </c>
       <c r="R32" t="n">
-        <v>23.14306484755539</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>138.4817867525216</v>
       </c>
       <c r="K33" t="n">
-        <v>364.587272144641</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L33" t="n">
-        <v>552.2572229763484</v>
+        <v>552.2572229763483</v>
       </c>
       <c r="M33" t="n">
-        <v>231.2573314561483</v>
+        <v>342.9315771988922</v>
       </c>
       <c r="N33" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O33" t="n">
-        <v>319.6987628989468</v>
+        <v>208.024517156203</v>
       </c>
       <c r="P33" t="n">
-        <v>465.8924336824984</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q33" t="n">
         <v>258.206683772143</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.9678881121112</v>
+        <v>73.96788811211115</v>
       </c>
       <c r="K34" t="n">
         <v>201.2487931569082</v>
       </c>
       <c r="L34" t="n">
-        <v>291.249707140733</v>
+        <v>291.2497071407329</v>
       </c>
       <c r="M34" t="n">
-        <v>313.2283662966473</v>
+        <v>313.2283662966472</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1717448903011</v>
+        <v>313.171744890301</v>
       </c>
       <c r="O34" t="n">
         <v>279.1922172092617</v>
@@ -37245,7 +37245,7 @@
         <v>226.682152578506</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.27100235571167</v>
+        <v>97.27100235571163</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>221.8149475898542</v>
       </c>
       <c r="K35" t="n">
-        <v>130.262143007653</v>
+        <v>454.4075555788177</v>
       </c>
       <c r="L35" t="n">
-        <v>616.5374284452646</v>
+        <v>616.5374284452645</v>
       </c>
       <c r="M35" t="n">
-        <v>253.2774380536013</v>
+        <v>294.7352950640366</v>
       </c>
       <c r="N35" t="n">
-        <v>699.3830687105735</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O35" t="n">
-        <v>614.7635209976531</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P35" t="n">
-        <v>486.6315098849298</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q35" t="n">
-        <v>215.6945652892203</v>
+        <v>287.4382201196047</v>
       </c>
       <c r="R35" t="n">
-        <v>23.14306484755539</v>
+        <v>23.14306484755537</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>12.39075141211276</v>
+        <v>138.4817867525216</v>
       </c>
       <c r="K36" t="n">
-        <v>364.587272144641</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L36" t="n">
-        <v>552.2572229763484</v>
+        <v>270.069149442363</v>
       </c>
       <c r="M36" t="n">
-        <v>231.2573314561483</v>
+        <v>231.2573314561482</v>
       </c>
       <c r="N36" t="n">
         <v>251.9322116757095</v>
@@ -37400,10 +37400,10 @@
         <v>601.8868364329326</v>
       </c>
       <c r="P36" t="n">
-        <v>465.8924336824984</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.1096455785666</v>
+        <v>258.206683772143</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>98.28057345868132</v>
+        <v>28.33950665340146</v>
       </c>
       <c r="K37" t="n">
-        <v>225.5614785034784</v>
+        <v>121.2691350212511</v>
       </c>
       <c r="L37" t="n">
-        <v>211.2700490050759</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M37" t="n">
-        <v>233.2487081609901</v>
+        <v>337.5410516432173</v>
       </c>
       <c r="N37" t="n">
-        <v>267.5433634315913</v>
+        <v>337.4844302368712</v>
       </c>
       <c r="O37" t="n">
         <v>199.2125590736046</v>
       </c>
       <c r="P37" t="n">
-        <v>146.7024944428489</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.29134422005453</v>
+        <v>17.29134422005451</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>52.71833241778046</v>
+        <v>52.7183324177804</v>
       </c>
       <c r="K38" t="n">
-        <v>130.262143007653</v>
+        <v>335.3583335354537</v>
       </c>
       <c r="L38" t="n">
-        <v>609.3186283131588</v>
+        <v>616.5374284452645</v>
       </c>
       <c r="M38" t="n">
-        <v>702.7909715464339</v>
+        <v>702.7909715464338</v>
       </c>
       <c r="N38" t="n">
-        <v>699.3830687105735</v>
+        <v>699.3830687105734</v>
       </c>
       <c r="O38" t="n">
-        <v>614.7635209976531</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P38" t="n">
         <v>164.8328017134471</v>
       </c>
       <c r="Q38" t="n">
-        <v>287.4382201196048</v>
+        <v>75.12322945970001</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>12.39075141211276</v>
+        <v>138.4817867525216</v>
       </c>
       <c r="K39" t="n">
-        <v>364.587272144641</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L39" t="n">
-        <v>552.2572229763484</v>
+        <v>552.2572229763483</v>
       </c>
       <c r="M39" t="n">
-        <v>231.2573314561483</v>
+        <v>231.2573314561482</v>
       </c>
       <c r="N39" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O39" t="n">
-        <v>601.8868364329326</v>
+        <v>319.6987628989475</v>
       </c>
       <c r="P39" t="n">
-        <v>465.8924336824984</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.1096455785666</v>
+        <v>258.206683772143</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>28.33950665340146</v>
       </c>
       <c r="K40" t="n">
-        <v>121.2691350212511</v>
+        <v>225.5614785034783</v>
       </c>
       <c r="L40" t="n">
-        <v>211.2700490050759</v>
+        <v>315.5623924873031</v>
       </c>
       <c r="M40" t="n">
-        <v>261.5882148143914</v>
+        <v>233.2487081609901</v>
       </c>
       <c r="N40" t="n">
-        <v>337.4844302368712</v>
+        <v>233.1920867546439</v>
       </c>
       <c r="O40" t="n">
-        <v>303.5049025558319</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P40" t="n">
-        <v>146.7024944428489</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.29134422005453</v>
+        <v>17.29134422005451</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.71833241778046</v>
+        <v>52.7183324177804</v>
       </c>
       <c r="K41" t="n">
-        <v>130.262143007653</v>
+        <v>335.3583335354527</v>
       </c>
       <c r="L41" t="n">
-        <v>609.3186283131593</v>
+        <v>616.5374284452645</v>
       </c>
       <c r="M41" t="n">
-        <v>702.7909715464339</v>
+        <v>702.7909715464338</v>
       </c>
       <c r="N41" t="n">
-        <v>699.3830687105735</v>
+        <v>699.3830687105734</v>
       </c>
       <c r="O41" t="n">
-        <v>614.7635209976531</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P41" t="n">
         <v>164.8328017134471</v>
       </c>
       <c r="Q41" t="n">
-        <v>287.4382201196048</v>
+        <v>75.12322945970001</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>12.39075141211276</v>
+        <v>138.4817867525216</v>
       </c>
       <c r="K42" t="n">
-        <v>364.587272144641</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L42" t="n">
-        <v>552.2572229763484</v>
+        <v>552.2572229763483</v>
       </c>
       <c r="M42" t="n">
-        <v>231.2573314561483</v>
+        <v>342.9315771988926</v>
       </c>
       <c r="N42" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O42" t="n">
-        <v>601.8868364329326</v>
+        <v>208.024517156203</v>
       </c>
       <c r="P42" t="n">
-        <v>465.8924336824984</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.1096455785666</v>
+        <v>258.206683772143</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>98.28057345868132</v>
       </c>
       <c r="K43" t="n">
         <v>121.2691350212511</v>
       </c>
       <c r="L43" t="n">
-        <v>211.2700490050759</v>
+        <v>315.5623924873031</v>
       </c>
       <c r="M43" t="n">
         <v>233.2487081609901</v>
       </c>
       <c r="N43" t="n">
-        <v>233.1920867546439</v>
+        <v>267.5433634315913</v>
       </c>
       <c r="O43" t="n">
-        <v>227.5520657270062</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P43" t="n">
-        <v>250.9948379250761</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q43" t="n">
-        <v>121.5836877022818</v>
+        <v>17.29134422005451</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.71833241778046</v>
+        <v>52.7183324177804</v>
       </c>
       <c r="K44" t="n">
         <v>454.4075555788177</v>
       </c>
       <c r="L44" t="n">
-        <v>616.5374284452646</v>
+        <v>616.5374284452645</v>
       </c>
       <c r="M44" t="n">
-        <v>702.7909715464339</v>
+        <v>253.2774380536013</v>
       </c>
       <c r="N44" t="n">
-        <v>557.1907818196531</v>
+        <v>699.3830687105734</v>
       </c>
       <c r="O44" t="n">
-        <v>614.7635209976531</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P44" t="n">
-        <v>164.8328017134471</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q44" t="n">
-        <v>75.12322945970007</v>
+        <v>83.78883273768508</v>
       </c>
       <c r="R44" t="n">
-        <v>23.14306484755539</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>66.37100095438532</v>
+        <v>138.4817867525216</v>
       </c>
       <c r="K45" t="n">
-        <v>364.587272144641</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L45" t="n">
-        <v>552.2572229763484</v>
+        <v>552.2572229763483</v>
       </c>
       <c r="M45" t="n">
-        <v>231.2573314561483</v>
+        <v>342.9315771988926</v>
       </c>
       <c r="N45" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O45" t="n">
-        <v>601.8868364329326</v>
+        <v>208.024517156203</v>
       </c>
       <c r="P45" t="n">
-        <v>465.8924336824984</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q45" t="n">
-        <v>48.12939603629391</v>
+        <v>258.206683772143</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>98.28057345868132</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>225.5614785034784</v>
+        <v>225.5614785034783</v>
       </c>
       <c r="L46" t="n">
-        <v>211.2700490050759</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M46" t="n">
-        <v>267.5999848379374</v>
+        <v>233.2487081609901</v>
       </c>
       <c r="N46" t="n">
         <v>233.1920867546439</v>
@@ -38190,10 +38190,10 @@
         <v>199.2125590736046</v>
       </c>
       <c r="P46" t="n">
-        <v>146.7024944428489</v>
+        <v>175.0420010962501</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.29134422005453</v>
+        <v>121.5836877022818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
